--- a/results/example/rate_std.xlsx
+++ b/results/example/rate_std.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
-  <si>
-    <t>P9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
+  <si>
+    <t>P9_ultra</t>
   </si>
   <si>
     <t>P9+BB_slnc</t>
@@ -31,6 +31,12 @@
     <t>BB_r</t>
   </si>
   <si>
+    <t>CIN-P9-1_l</t>
+  </si>
+  <si>
+    <t>CIN-P9-1_r</t>
+  </si>
+  <si>
     <t>DNa01_l</t>
   </si>
   <si>
@@ -67,24 +73,27 @@
     <t>MooDNg_l</t>
   </si>
   <si>
-    <t>P9-0DN1_l</t>
-  </si>
-  <si>
-    <t>P9-0DN1_r</t>
-  </si>
-  <si>
     <t>P9-cDN1_l</t>
   </si>
   <si>
     <t>P9-cDN1_r</t>
   </si>
   <si>
+    <t>P9-oDN1_l</t>
+  </si>
+  <si>
+    <t>P9-oDN1_r</t>
+  </si>
+  <si>
     <t>P9_l</t>
   </si>
   <si>
     <t>P9_r</t>
   </si>
   <si>
+    <t>neck motor neuron_r</t>
+  </si>
+  <si>
     <t>720575940604735660</t>
   </si>
   <si>
@@ -115,6 +124,9 @@
     <t>720575940606667868</t>
   </si>
   <si>
+    <t>720575940606852018</t>
+  </si>
+  <si>
     <t>720575940607641010</t>
   </si>
   <si>
@@ -145,7 +157,7 @@
     <t>720575940611206514</t>
   </si>
   <si>
-    <t>720575940612629210</t>
+    <t>720575940611772514</t>
   </si>
   <si>
     <t>720575940612766515</t>
@@ -163,6 +175,9 @@
     <t>720575940614963359</t>
   </si>
   <si>
+    <t>720575940615484063</t>
+  </si>
+  <si>
     <t>720575940615626562</t>
   </si>
   <si>
@@ -175,6 +190,9 @@
     <t>720575940615997919</t>
   </si>
   <si>
+    <t>720575940616018956</t>
+  </si>
+  <si>
     <t>720575940616566203</t>
   </si>
   <si>
@@ -214,7 +232,7 @@
     <t>720575940618156829</t>
   </si>
   <si>
-    <t>720575940618165393</t>
+    <t>720575940618167579</t>
   </si>
   <si>
     <t>720575940618177977</t>
@@ -241,6 +259,9 @@
     <t>720575940619681006</t>
   </si>
   <si>
+    <t>720575940619866027</t>
+  </si>
+  <si>
     <t>720575940619876884</t>
   </si>
   <si>
@@ -253,6 +274,9 @@
     <t>720575940620231590</t>
   </si>
   <si>
+    <t>720575940620250328</t>
+  </si>
+  <si>
     <t>720575940620282900</t>
   </si>
   <si>
@@ -313,9 +337,6 @@
     <t>720575940622933130</t>
   </si>
   <si>
-    <t>720575940622998627</t>
-  </si>
-  <si>
     <t>720575940623164515</t>
   </si>
   <si>
@@ -331,6 +352,9 @@
     <t>720575940624163303</t>
   </si>
   <si>
+    <t>720575940624231143</t>
+  </si>
+  <si>
     <t>720575940624336115</t>
   </si>
   <si>
@@ -370,6 +394,9 @@
     <t>720575940626210536</t>
   </si>
   <si>
+    <t>720575940626279486</t>
+  </si>
+  <si>
     <t>720575940626310960</t>
   </si>
   <si>
@@ -388,6 +415,9 @@
     <t>720575940626773523</t>
   </si>
   <si>
+    <t>720575940626812218</t>
+  </si>
+  <si>
     <t>720575940626829852</t>
   </si>
   <si>
@@ -403,6 +433,9 @@
     <t>720575940627348057</t>
   </si>
   <si>
+    <t>720575940627358853</t>
+  </si>
+  <si>
     <t>720575940627361157</t>
   </si>
   <si>
@@ -466,15 +499,18 @@
     <t>720575940630291767</t>
   </si>
   <si>
+    <t>720575940630808591</t>
+  </si>
+  <si>
     <t>720575940630931999</t>
   </si>
   <si>
+    <t>720575940631283267</t>
+  </si>
+  <si>
     <t>720575940631283512</t>
   </si>
   <si>
-    <t>720575940631715896</t>
-  </si>
-  <si>
     <t>720575940631721785</t>
   </si>
   <si>
@@ -505,12 +541,18 @@
     <t>720575940632943315</t>
   </si>
   <si>
+    <t>720575940632944339</t>
+  </si>
+  <si>
     <t>720575940632962786</t>
   </si>
   <si>
     <t>720575940633116256</t>
   </si>
   <si>
+    <t>720575940633270497</t>
+  </si>
+  <si>
     <t>720575940633308371</t>
   </si>
   <si>
@@ -529,12 +571,18 @@
     <t>720575940635170484</t>
   </si>
   <si>
+    <t>720575940635179359</t>
+  </si>
+  <si>
     <t>720575940635771316</t>
   </si>
   <si>
     <t>720575940635776760</t>
   </si>
   <si>
+    <t>720575940635937678</t>
+  </si>
+  <si>
     <t>720575940635942507</t>
   </si>
   <si>
@@ -544,6 +592,9 @@
     <t>720575940636879534</t>
   </si>
   <si>
+    <t>720575940636933751</t>
+  </si>
+  <si>
     <t>720575940637308605</t>
   </si>
   <si>
@@ -553,7 +604,10 @@
     <t>720575940638169917</t>
   </si>
   <si>
-    <t>720575940638664355</t>
+    <t>720575940638196038</t>
+  </si>
+  <si>
+    <t>720575940638681917</t>
   </si>
   <si>
     <t>720575940638989894</t>
@@ -571,6 +625,9 @@
     <t>720575940640696027</t>
   </si>
   <si>
+    <t>720575940641480949</t>
+  </si>
+  <si>
     <t>720575940641585627</t>
   </si>
   <si>
@@ -584,6 +641,9 @@
   </si>
   <si>
     <t>720575940644758308</t>
+  </si>
+  <si>
+    <t>720575940645047831</t>
   </si>
   <si>
     <t>720575940646126190</t>
@@ -975,7 +1035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1008,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.64795233314316</v>
+        <v>9.499766078991394</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1019,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.277212224944876</v>
+        <v>10.10390463577764</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1027,10 +1087,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>2.841165644981338</v>
+        <v>2.150193789716019</v>
       </c>
       <c r="C4">
-        <v>1.920648038785058</v>
+        <v>1.78999486944881</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1038,10 +1098,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>3.011090610836324</v>
+        <v>2.699794230842211</v>
       </c>
       <c r="C5">
-        <v>2.521904042583698</v>
+        <v>1.864582169459599</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1049,10 +1109,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>3.720961643924263</v>
+        <v>3.439799735772742</v>
       </c>
       <c r="C6">
-        <v>2.33238075793812</v>
+        <v>2.459448899426229</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1060,10 +1120,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>2.801586851926759</v>
+        <v>4.19311605160437</v>
       </c>
       <c r="C7">
-        <v>1.661324772583615</v>
+        <v>2.709858544893688</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1071,10 +1131,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>4.718756898449704</v>
+        <v>4.432330713694045</v>
       </c>
       <c r="C8">
-        <v>3.96316371938716</v>
+        <v>3.229034943549956</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1082,10 +1142,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>6.476024157528204</v>
+        <v>4.532475409015843</v>
       </c>
       <c r="C9">
-        <v>5.986651818838307</v>
+        <v>1.991370270832513</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1093,10 +1153,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>2.206052281036573</v>
+        <v>6.211458944742549</v>
       </c>
       <c r="C10">
-        <v>2.045048220023729</v>
+        <v>3.930083403129704</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1104,10 +1164,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>2.45877114745467</v>
+        <v>7.781745019952501</v>
       </c>
       <c r="C11">
-        <v>1.820866704499688</v>
+        <v>3.023794525647094</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1115,10 +1175,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>3.327494886881454</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.93362066830309</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1126,10 +1186,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>0.4714045207910316</v>
+        <v>3.145366963222786</v>
       </c>
       <c r="C13">
-        <v>0.4937279747182557</v>
+        <v>1.61245154965971</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1137,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1.172413793103448</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1148,10 +1208,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>1.604161255402129</v>
+        <v>1.720465053408526</v>
       </c>
       <c r="C15">
-        <v>0.7180219742846005</v>
+        <v>0.6740130776245103</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1159,10 +1219,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>2.393509742802166</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C16">
-        <v>2.006655592438988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1170,10 +1230,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>3.218177538089946</v>
+        <v>1.746106780494506</v>
       </c>
       <c r="C17">
-        <v>2.073376205344531</v>
+        <v>1.085620296683619</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1181,10 +1241,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>2.99555225848813</v>
+        <v>4.374166587286466</v>
       </c>
       <c r="C18">
-        <v>2.086996778999804</v>
+        <v>2.601068156653254</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1192,10 +1252,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>5.647418289212633</v>
+        <v>5.733430231739305</v>
       </c>
       <c r="C19">
-        <v>3.964425136973413</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1203,10 +1263,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>12.41061373717405</v>
+        <v>3.501745596445038</v>
       </c>
       <c r="C20">
-        <v>7.313913681014655</v>
+        <v>2.139833846093871</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1214,10 +1274,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>10.84891187580067</v>
+        <v>2.489087293679262</v>
       </c>
       <c r="C21">
-        <v>11.54296322440646</v>
+        <v>2.114762923408253</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1225,10 +1285,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>0.806225774829855</v>
+        <v>13.85564465800451</v>
       </c>
       <c r="C22">
-        <v>0.4</v>
+        <v>14.18563436093791</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1236,10 +1296,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>16.32094768490278</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>12.52446494754256</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1247,10 +1307,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>0.4330127018922193</v>
+        <v>6.046945969293553</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>3.055959569249713</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1258,10 +1318,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="1">
-        <v>0.6959705453537527</v>
+        <v>0.8314794192830981</v>
       </c>
       <c r="C25">
-        <v>0.4330127018922193</v>
+        <v>0.4517539514526256</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1280,10 +1340,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>2.055075018906447</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>2.285218200133682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1291,10 +1351,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>3.295788558482207</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="C28">
-        <v>1.931033114394698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1302,10 +1362,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="1">
-        <v>1.107068200247844</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>1.206045378311055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1313,10 +1373,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>1.852625764212033</v>
+        <v>2.035517952102937</v>
       </c>
       <c r="C30">
-        <v>1.818424226264781</v>
+        <v>2.386070689089771</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1324,10 +1384,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>0.74535599249993</v>
+        <v>2.851872155604873</v>
       </c>
       <c r="C31">
-        <v>0.6666666666666666</v>
+        <v>1.984663419547226</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1335,10 +1395,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>2.695675549220764</v>
+        <v>1.164646463130784</v>
       </c>
       <c r="C32">
-        <v>1.462166554973392</v>
+        <v>0.6403124237432849</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1346,10 +1406,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>2.756003547812585</v>
+        <v>1.74515201502779</v>
       </c>
       <c r="C33">
-        <v>1.563827214098653</v>
+        <v>1.988857852023506</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1357,10 +1417,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="1">
-        <v>3.027466854575877</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>2.924988129130707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1368,10 +1428,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="1">
-        <v>1.252144974038981</v>
+        <v>0.3307189138830738</v>
       </c>
       <c r="C35">
-        <v>0.4948716593053935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1379,10 +1439,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>3.396076167186675</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1.700980109623077</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1390,10 +1450,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>3.418901707988823</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1.66032125405497</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1401,10 +1461,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>3.895296308797745</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2.922898105191717</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1412,10 +1472,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="1">
-        <v>1.81628436344337</v>
+        <v>1.026281851086641</v>
       </c>
       <c r="C39">
-        <v>1.013245610238044</v>
+        <v>0.816496580927726</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1423,10 +1483,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="1">
-        <v>1.292439553712281</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C40">
-        <v>1.14564392373896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1434,10 +1494,10 @@
         <v>42</v>
       </c>
       <c r="B41" s="1">
-        <v>0.9830564581955606</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>1.16619037896906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1456,10 +1516,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="1">
-        <v>1.047664068296704</v>
+        <v>1.746106780494506</v>
       </c>
       <c r="C43">
-        <v>1.089724735885168</v>
+        <v>1.782943882708844</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1467,10 +1527,10 @@
         <v>45</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>1.258305739211792</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.6056929133855239</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1478,10 +1538,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="1">
-        <v>2.70487088982307</v>
+        <v>1.225310181770823</v>
       </c>
       <c r="C45">
-        <v>2.318180583741604</v>
+        <v>0.8213137116947161</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1489,10 +1549,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="1">
-        <v>2.202271554554524</v>
+        <v>0</v>
       </c>
       <c r="C46">
-        <v>1.818424226264781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1500,10 +1560,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="1">
-        <v>0.8887803753208976</v>
+        <v>1.078693768830422</v>
       </c>
       <c r="C47">
-        <v>0.8907235428302467</v>
+        <v>0.6400954789890506</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1511,10 +1571,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>1.577939474296213</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>1.586050300449376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1522,10 +1582,10 @@
         <v>50</v>
       </c>
       <c r="B49" s="1">
-        <v>0.7064381221422574</v>
+        <v>2.257786526667214</v>
       </c>
       <c r="C49">
-        <v>0.7284313590846836</v>
+        <v>1.055259876619127</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1533,10 +1593,10 @@
         <v>51</v>
       </c>
       <c r="B50" s="1">
-        <v>0.4330127018922193</v>
+        <v>2.368543856465402</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1.825741858350554</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1544,10 +1604,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="1">
-        <v>0.6571287406727709</v>
+        <v>0.7905694150420949</v>
       </c>
       <c r="C51">
-        <v>0.628539361054709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1566,10 +1626,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="1">
-        <v>1.05821665324597</v>
+        <v>3.424746543744353</v>
       </c>
       <c r="C53">
-        <v>0.9333240326917549</v>
+        <v>2.031966753883756</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1577,10 +1637,10 @@
         <v>55</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>0.3903123748998999</v>
       </c>
       <c r="C54">
-        <v>0.4330127018922193</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1588,7 +1648,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="1">
-        <v>0.4714045207910317</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1599,10 +1659,10 @@
         <v>57</v>
       </c>
       <c r="B56" s="1">
-        <v>0.73528410979512</v>
+        <v>0.4479032082388083</v>
       </c>
       <c r="C56">
-        <v>0.6708203932499369</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1610,10 +1670,10 @@
         <v>58</v>
       </c>
       <c r="B57" s="1">
-        <v>0.9090593428863095</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="C57">
-        <v>0.8907235428302467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1621,10 +1681,10 @@
         <v>59</v>
       </c>
       <c r="B58" s="1">
-        <v>5.264239947249956</v>
+        <v>0</v>
       </c>
       <c r="C58">
-        <v>3.995692124720767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1632,10 +1692,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="1">
-        <v>0.4898979485566357</v>
+        <v>1.02867475187853</v>
       </c>
       <c r="C59">
-        <v>0.3499271061118826</v>
+        <v>0.6343239424027171</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1643,10 +1703,10 @@
         <v>61</v>
       </c>
       <c r="B60" s="1">
-        <v>0.9576845844606717</v>
+        <v>1.577621275493231</v>
       </c>
       <c r="C60">
-        <v>0.9150793638884732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1654,7 +1714,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="1">
-        <v>0.4330127018922193</v>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1665,10 +1725,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>0.8906233078822999</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1676,7 +1736,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="1">
-        <v>0</v>
+        <v>0.7880950133074057</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1687,10 +1747,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="1">
-        <v>2.591947651443605</v>
+        <v>4.711215931747934</v>
       </c>
       <c r="C64">
-        <v>1.728958777478852</v>
+        <v>4.289004028391155</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1698,10 +1758,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="1">
-        <v>1.557776192739723</v>
+        <v>0.6849348892187752</v>
       </c>
       <c r="C65">
-        <v>1.801542548916222</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1709,10 +1769,10 @@
         <v>67</v>
       </c>
       <c r="B66" s="1">
-        <v>0.6571287406727709</v>
+        <v>0.9420721840708386</v>
       </c>
       <c r="C66">
-        <v>0.628539361054709</v>
+        <v>0.4714045207910317</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1720,10 +1780,10 @@
         <v>68</v>
       </c>
       <c r="B67" s="1">
-        <v>3.250470051478026</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>2.45877114745467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1731,10 +1791,10 @@
         <v>69</v>
       </c>
       <c r="B68" s="1">
-        <v>1.184215716795435</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0.9428090415820632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1742,10 +1802,10 @@
         <v>70</v>
       </c>
       <c r="B69" s="1">
-        <v>0.73528410979512</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0.6555547773570889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1753,10 +1813,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="1">
-        <v>1.743559577416269</v>
+        <v>3.247049943153528</v>
       </c>
       <c r="C70">
-        <v>1.299038105676658</v>
+        <v>1.082599965042499</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1764,10 +1824,10 @@
         <v>72</v>
       </c>
       <c r="B71" s="1">
-        <v>2.750695644852815</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>2.408318915758459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1775,10 +1835,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="1">
-        <v>1.7083229633002</v>
+        <v>0.4479032082388083</v>
       </c>
       <c r="C72">
-        <v>1.253919474921247</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1786,10 +1846,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="1">
-        <v>0.4000000000000001</v>
+        <v>3.515047020390418</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>2.629744389775469</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1797,10 +1857,10 @@
         <v>75</v>
       </c>
       <c r="B74" s="1">
-        <v>4.09878030638384</v>
+        <v>1.70926884953772</v>
       </c>
       <c r="C74">
-        <v>3.038457210859192</v>
+        <v>0.7806247497997998</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1808,10 +1868,10 @@
         <v>76</v>
       </c>
       <c r="B75" s="1">
-        <v>0.4330127018922193</v>
+        <v>0.8819171036881968</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1819,10 +1879,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="1">
-        <v>0.6757197808427856</v>
+        <v>1.520436909267112</v>
       </c>
       <c r="C76">
-        <v>0.5994789404140899</v>
+        <v>0.7592027982620249</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1830,10 +1890,10 @@
         <v>78</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>2.633932421304693</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>1.372463664253189</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1841,10 +1901,10 @@
         <v>79</v>
       </c>
       <c r="B78" s="1">
-        <v>1.703643155123749</v>
+        <v>1.5</v>
       </c>
       <c r="C78">
-        <v>1.309952797378954</v>
+        <v>0.7664854858377946</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1852,10 +1912,10 @@
         <v>80</v>
       </c>
       <c r="B79" s="1">
-        <v>0.9712418121129114</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0.6959705453537527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1874,10 +1934,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="1">
-        <v>3.771383477363889</v>
+        <v>3.318132004607412</v>
       </c>
       <c r="C81">
-        <v>2.669997919266772</v>
+        <v>4.823092599382913</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1885,7 +1945,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="1">
-        <v>0.4714045207910317</v>
+        <v>0</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1896,10 +1956,10 @@
         <v>84</v>
       </c>
       <c r="B83" s="1">
-        <v>0</v>
+        <v>0.9629826790438176</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>0.3499271061118826</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1907,7 +1967,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="1">
-        <v>0.3499271061118826</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1918,7 +1978,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="1">
-        <v>0.4714045207910317</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1929,10 +1989,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="1">
-        <v>1.0066347944848</v>
+        <v>1.511274500970605</v>
       </c>
       <c r="C86">
-        <v>1.067187372905475</v>
+        <v>0.7592027982620249</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1940,10 +2000,10 @@
         <v>88</v>
       </c>
       <c r="B87" s="1">
-        <v>0.4</v>
+        <v>0.6849348892187752</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>0.4330127018922193</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1951,10 +2011,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="1">
-        <v>1.834545054108935</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>1.436043948569201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1962,10 +2022,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="1">
-        <v>1.097446843705856</v>
+        <v>4.502961988143655</v>
       </c>
       <c r="C89">
-        <v>0.6781419786518724</v>
+        <v>2.970222587992728</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1973,10 +2033,10 @@
         <v>91</v>
       </c>
       <c r="B90" s="1">
-        <v>2.562334005463682</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>1.601735170231195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1984,7 +2044,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="1">
-        <v>0.4714045207910317</v>
+        <v>1.039679173897645</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1995,10 +2055,10 @@
         <v>93</v>
       </c>
       <c r="B92" s="1">
-        <v>0.7767276132106846</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0.9791208740244551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2006,10 +2066,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="1">
-        <v>3.78667253520672</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>2.959166549328825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2017,10 +2077,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="1">
-        <v>2.290317784840251</v>
+        <v>1.727534370135657</v>
       </c>
       <c r="C94">
-        <v>1.448754254140049</v>
+        <v>0.5983516452371671</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2028,10 +2088,10 @@
         <v>96</v>
       </c>
       <c r="B95" s="1">
-        <v>1.454494948618095</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="C95">
-        <v>1.048185114039356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2039,10 +2099,10 @@
         <v>97</v>
       </c>
       <c r="B96" s="1">
-        <v>0.4898979485566357</v>
+        <v>2.472290885438488</v>
       </c>
       <c r="C96">
-        <v>0.3499271061118826</v>
+        <v>2.051828452868319</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2050,10 +2110,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="1">
-        <v>0.4991341984846218</v>
+        <v>0.9921567416492215</v>
       </c>
       <c r="C97">
-        <v>0.3499271061118826</v>
+        <v>0.5916079783099616</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2061,10 +2121,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="1">
-        <v>1.367188110455104</v>
+        <v>2.39443799947573</v>
       </c>
       <c r="C98">
-        <v>1.454494948618095</v>
+        <v>1.886796226411321</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2072,7 +2132,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="1">
-        <v>0</v>
+        <v>0.4453617714151233</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2083,10 +2143,10 @@
         <v>101</v>
       </c>
       <c r="B100" s="1">
-        <v>0.4</v>
+        <v>1.131493180098314</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.415739709641549</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2094,10 +2154,10 @@
         <v>102</v>
       </c>
       <c r="B101" s="1">
-        <v>6.03508261933689</v>
+        <v>3.63318042491699</v>
       </c>
       <c r="C101">
-        <v>4.709446771000697</v>
+        <v>3.305887004857983</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2105,10 +2165,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="1">
-        <v>0.3608012122941099</v>
+        <v>3.400816895329055</v>
       </c>
       <c r="C102">
-        <v>0.3499271061118827</v>
+        <v>2.418447619628941</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2116,10 +2176,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="1">
-        <v>5.750665576947026</v>
+        <v>1.943936441576444</v>
       </c>
       <c r="C103">
-        <v>4.874423042781577</v>
+        <v>1.205417813306796</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2127,10 +2187,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="1">
-        <v>1.536229149573722</v>
+        <v>0.6849348892187752</v>
       </c>
       <c r="C104">
-        <v>1.28062484748657</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2138,10 +2198,10 @@
         <v>106</v>
       </c>
       <c r="B105" s="1">
-        <v>0.9741459348873079</v>
+        <v>0.6441510347391795</v>
       </c>
       <c r="C105">
-        <v>1.268857754044952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2149,10 +2209,10 @@
         <v>107</v>
       </c>
       <c r="B106" s="1">
-        <v>3.46759782758577</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>2.81120838110295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2160,7 +2220,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="1">
-        <v>0.4714045207910317</v>
+        <v>0</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2171,10 +2231,10 @@
         <v>109</v>
       </c>
       <c r="B108" s="1">
-        <v>0</v>
+        <v>5.385164807134504</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>4.434210439550904</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2182,10 +2242,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="1">
-        <v>0.9202613255876838</v>
+        <v>0.7556372504853025</v>
       </c>
       <c r="C109">
-        <v>0.8907235428302467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2193,10 +2253,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="1">
-        <v>0</v>
+        <v>5.781392103051575</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>3.074999398662567</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2204,10 +2264,10 @@
         <v>112</v>
       </c>
       <c r="B111" s="1">
-        <v>2.6503272805217</v>
+        <v>0</v>
       </c>
       <c r="C111">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2215,10 +2275,10 @@
         <v>113</v>
       </c>
       <c r="B112" s="1">
-        <v>2.322833518691246</v>
+        <v>2.616401260425387</v>
       </c>
       <c r="C112">
-        <v>1.8427033281447</v>
+        <v>2.01218510303821</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2226,10 +2286,10 @@
         <v>114</v>
       </c>
       <c r="B113" s="1">
-        <v>0.3221897397089212</v>
+        <v>0.9682458365518543</v>
       </c>
       <c r="C113">
-        <v>0.8</v>
+        <v>0.3726779962499649</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2237,10 +2297,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="1">
-        <v>0</v>
+        <v>3.581394824490717</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1.49248115565993</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2248,10 +2308,10 @@
         <v>116</v>
       </c>
       <c r="B115" s="1">
-        <v>0.9830564581955606</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>1.333170562981346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2259,7 +2319,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="1">
-        <v>0.3142696805273545</v>
+        <v>0</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2270,7 +2330,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="1">
-        <v>0.4</v>
+        <v>0.7880950133074057</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2281,7 +2341,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2292,10 +2352,10 @@
         <v>120</v>
       </c>
       <c r="B119" s="1">
-        <v>0.7196932764020368</v>
+        <v>2.616515592568454</v>
       </c>
       <c r="C119">
-        <v>0.6555547773570889</v>
+        <v>1.048220125784067</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2303,10 +2363,10 @@
         <v>121</v>
       </c>
       <c r="B120" s="1">
-        <v>0</v>
+        <v>2.974147870492581</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>2.044233080861595</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2314,10 +2374,10 @@
         <v>122</v>
       </c>
       <c r="B121" s="1">
-        <v>0.8068715304598785</v>
+        <v>0.6102859818083951</v>
       </c>
       <c r="C121">
-        <v>0.3812200410828153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2336,10 +2396,10 @@
         <v>124</v>
       </c>
       <c r="B123" s="1">
-        <v>0.4898979485566357</v>
+        <v>1.276247963471804</v>
       </c>
       <c r="C123">
-        <v>0.3499271061118826</v>
+        <v>0.8213137116947161</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2347,10 +2407,10 @@
         <v>125</v>
       </c>
       <c r="B124" s="1">
-        <v>2.883670500517622</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="C124">
-        <v>1.704894913672589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2358,10 +2418,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="1">
-        <v>2.725191124795959</v>
+        <v>0.933138949631687</v>
       </c>
       <c r="C125">
-        <v>2.39002556936578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2369,7 +2429,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="1">
-        <v>0.4</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2380,10 +2440,10 @@
         <v>128</v>
       </c>
       <c r="B127" s="1">
-        <v>0.73528410979512</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="C127">
-        <v>0.6555547773570889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2391,10 +2451,10 @@
         <v>129</v>
       </c>
       <c r="B128" s="1">
-        <v>0.699205898780101</v>
+        <v>0.8819171036881968</v>
       </c>
       <c r="C128">
-        <v>0.6871842709362768</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2402,10 +2462,10 @@
         <v>130</v>
       </c>
       <c r="B129" s="1">
-        <v>1.127312438205724</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>0.3726779962499649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2413,10 +2473,10 @@
         <v>131</v>
       </c>
       <c r="B130" s="1">
-        <v>2.610809554642438</v>
+        <v>2.072036035722674</v>
       </c>
       <c r="C130">
-        <v>2.012358511016242</v>
+        <v>0.816496580927726</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2435,7 +2495,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="1">
-        <v>0.4213250442347432</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2446,10 +2506,10 @@
         <v>134</v>
       </c>
       <c r="B133" s="1">
-        <v>1.972026594366539</v>
+        <v>0.6849348892187752</v>
       </c>
       <c r="C133">
-        <v>1.668332500832293</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2457,10 +2517,10 @@
         <v>135</v>
       </c>
       <c r="B134" s="1">
-        <v>1.063098073929635</v>
+        <v>3.620313061969457</v>
       </c>
       <c r="C134">
-        <v>0.6123724356957945</v>
+        <v>1.719172927763684</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2468,10 +2528,10 @@
         <v>136</v>
       </c>
       <c r="B135" s="1">
-        <v>0</v>
+        <v>4.277720057330644</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>2.180978373727412</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2479,10 +2539,10 @@
         <v>137</v>
       </c>
       <c r="B136" s="1">
-        <v>1.659986613065164</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="C136">
-        <v>1.448754254140049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2490,10 +2550,10 @@
         <v>138</v>
       </c>
       <c r="B137" s="1">
-        <v>1.179208439750453</v>
+        <v>0.8819171036881968</v>
       </c>
       <c r="C137">
-        <v>1.032348751457897</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2501,10 +2561,10 @@
         <v>139</v>
       </c>
       <c r="B138" s="1">
-        <v>0.9140780887664627</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="C138">
-        <v>0.8907235428302467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2512,10 +2572,10 @@
         <v>140</v>
       </c>
       <c r="B139" s="1">
-        <v>2.738409919805449</v>
+        <v>0.4</v>
       </c>
       <c r="C139">
-        <v>1.795054935711501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2523,10 +2583,10 @@
         <v>141</v>
       </c>
       <c r="B140" s="1">
-        <v>0.655554777357089</v>
+        <v>2.404625172916191</v>
       </c>
       <c r="C140">
-        <v>0.628539361054709</v>
+        <v>0.6740130776245103</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2534,10 +2594,10 @@
         <v>142</v>
       </c>
       <c r="B141" s="1">
-        <v>1.316561177208767</v>
+        <v>2.449489742783178</v>
       </c>
       <c r="C141">
-        <v>1.302152247482704</v>
+        <v>1.039390403059553</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2545,10 +2605,10 @@
         <v>143</v>
       </c>
       <c r="B142" s="1">
-        <v>2.407396011369039</v>
+        <v>1.814754345175493</v>
       </c>
       <c r="C142">
-        <v>1.882374387132733</v>
+        <v>0.4714045207910317</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2556,7 +2616,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="1">
-        <v>0.4000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2567,10 +2627,10 @@
         <v>145</v>
       </c>
       <c r="B144" s="1">
-        <v>3.24636548911069</v>
+        <v>2.530919903030429</v>
       </c>
       <c r="C144">
-        <v>2.44131112314674</v>
+        <v>2.216353361317239</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2578,10 +2638,10 @@
         <v>146</v>
       </c>
       <c r="B145" s="1">
-        <v>0</v>
+        <v>1.21335164821342</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>0.8637671850678283</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2600,10 +2660,10 @@
         <v>148</v>
       </c>
       <c r="B147" s="1">
-        <v>1.663055938177585</v>
+        <v>2.717024516308644</v>
       </c>
       <c r="C147">
-        <v>1.374368541872554</v>
+        <v>1.765408356915381</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2611,10 +2671,10 @@
         <v>149</v>
       </c>
       <c r="B148" s="1">
-        <v>0</v>
+        <v>1.051939144494025</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>0.618241233033047</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2622,10 +2682,10 @@
         <v>150</v>
       </c>
       <c r="B149" s="1">
-        <v>1.743559577416269</v>
+        <v>0.7880950133074057</v>
       </c>
       <c r="C149">
-        <v>1.299038105676658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2633,10 +2693,10 @@
         <v>151</v>
       </c>
       <c r="B150" s="1">
-        <v>3.690979996333403</v>
+        <v>3.575378767813745</v>
       </c>
       <c r="C150">
-        <v>2.360790827950103</v>
+        <v>1.145157395091875</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2644,10 +2704,10 @@
         <v>152</v>
       </c>
       <c r="B151" s="1">
-        <v>4.211756033875762</v>
+        <v>0.4479032082388083</v>
       </c>
       <c r="C151">
-        <v>3.411744421846397</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2655,10 +2715,10 @@
         <v>153</v>
       </c>
       <c r="B152" s="1">
-        <v>0</v>
+        <v>2.256841450641434</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>1.608332892742529</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2666,10 +2726,10 @@
         <v>154</v>
       </c>
       <c r="B153" s="1">
-        <v>3.885013942488925</v>
+        <v>2.857543622686372</v>
       </c>
       <c r="C153">
-        <v>3.687817782917155</v>
+        <v>2.385372088375313</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2677,10 +2737,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="1">
-        <v>3.674083407992923</v>
+        <v>0</v>
       </c>
       <c r="C154">
-        <v>3.610016928245936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2688,10 +2748,10 @@
         <v>156</v>
       </c>
       <c r="B155" s="1">
-        <v>0</v>
+        <v>2.619584360585133</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>2.36196716507425</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2699,10 +2759,10 @@
         <v>157</v>
       </c>
       <c r="B156" s="1">
-        <v>0.6267831705280087</v>
+        <v>0</v>
       </c>
       <c r="C156">
-        <v>0.3307189138830738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2710,10 +2770,10 @@
         <v>158</v>
       </c>
       <c r="B157" s="1">
-        <v>1.107068200247844</v>
+        <v>0</v>
       </c>
       <c r="C157">
-        <v>1.206045378311055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2721,10 +2781,10 @@
         <v>159</v>
       </c>
       <c r="B158" s="1">
-        <v>0</v>
+        <v>2.632278269653284</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>2.167692065051881</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2732,7 +2792,7 @@
         <v>160</v>
       </c>
       <c r="B159" s="1">
-        <v>0.4330127018922193</v>
+        <v>0</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2743,10 +2803,10 @@
         <v>161</v>
       </c>
       <c r="B160" s="1">
-        <v>1.107068200247844</v>
+        <v>0</v>
       </c>
       <c r="C160">
-        <v>1.206045378311055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2754,10 +2814,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="1">
-        <v>1.387948125831798</v>
+        <v>1.520436909267112</v>
       </c>
       <c r="C161">
-        <v>1.309307341415954</v>
+        <v>0.7592027982620249</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2765,10 +2825,10 @@
         <v>163</v>
       </c>
       <c r="B162" s="1">
-        <v>2.315032397181517</v>
+        <v>0</v>
       </c>
       <c r="C162">
-        <v>2.240721609958126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2776,10 +2836,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="1">
-        <v>0.4714045207910317</v>
+        <v>2.848196310337864</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>4.088058490557862</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2787,10 +2847,10 @@
         <v>165</v>
       </c>
       <c r="B164" s="1">
-        <v>3.346782223048532</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>2.67854497341433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2798,10 +2858,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="1">
-        <v>0.4714045207910317</v>
+        <v>3.971565602295061</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>3.825208781520589</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2809,10 +2869,10 @@
         <v>167</v>
       </c>
       <c r="B166" s="1">
-        <v>1.635074734608514</v>
+        <v>4.00610645001963</v>
       </c>
       <c r="C166">
-        <v>1.253919474921247</v>
+        <v>3.358074845304473</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2820,10 +2880,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="1">
-        <v>1.50406855635713</v>
+        <v>0</v>
       </c>
       <c r="C167">
-        <v>1.135751097536584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2831,10 +2891,10 @@
         <v>169</v>
       </c>
       <c r="B168" s="1">
-        <v>1.799555500672319</v>
+        <v>0.7178482586514922</v>
       </c>
       <c r="C168">
-        <v>1.25554326444328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2842,10 +2902,10 @@
         <v>170</v>
       </c>
       <c r="B169" s="1">
-        <v>0.4330127018922193</v>
+        <v>1.01267477705413</v>
       </c>
       <c r="C169">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2853,10 +2913,10 @@
         <v>171</v>
       </c>
       <c r="B170" s="1">
-        <v>0.9991996797437438</v>
+        <v>0</v>
       </c>
       <c r="C170">
-        <v>1.192261549873091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2864,10 +2924,10 @@
         <v>172</v>
       </c>
       <c r="B171" s="1">
-        <v>1.74977952755818</v>
+        <v>0</v>
       </c>
       <c r="C171">
-        <v>1.224744871391589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2875,10 +2935,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="1">
-        <v>0.77138921583987</v>
+        <v>1.176470588235294</v>
       </c>
       <c r="C172">
-        <v>0.628539361054709</v>
+        <v>0.6403124237432849</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2886,10 +2946,10 @@
         <v>174</v>
       </c>
       <c r="B173" s="1">
-        <v>0.4714045207910317</v>
+        <v>1.58308964986389</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>0.642824346533225</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2897,7 +2957,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="1">
-        <v>0.4841229182759271</v>
+        <v>0</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -2908,10 +2968,10 @@
         <v>176</v>
       </c>
       <c r="B175" s="1">
-        <v>0.9431860898041277</v>
+        <v>1.289271973720914</v>
       </c>
       <c r="C175">
-        <v>1.14564392373896</v>
+        <v>0.9534625892455924</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2919,10 +2979,10 @@
         <v>177</v>
       </c>
       <c r="B176" s="1">
-        <v>4.302970550161314</v>
+        <v>0</v>
       </c>
       <c r="C176">
-        <v>3.211956828269438</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2930,7 +2990,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="1">
-        <v>0.2420614591379636</v>
+        <v>0</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -2941,10 +3001,10 @@
         <v>179</v>
       </c>
       <c r="B178" s="1">
-        <v>0</v>
+        <v>2.867441755680876</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>1.17310761419409</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2952,10 +3012,10 @@
         <v>180</v>
       </c>
       <c r="B179" s="1">
-        <v>1.318529638712481</v>
+        <v>0</v>
       </c>
       <c r="C179">
-        <v>0.4823763889427199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2963,10 +3023,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="1">
-        <v>0</v>
+        <v>1.704501523550795</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>0.7810249675906654</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2974,10 +3034,10 @@
         <v>182</v>
       </c>
       <c r="B181" s="1">
-        <v>2.738409919805449</v>
+        <v>2.426932219902319</v>
       </c>
       <c r="C181">
-        <v>2.048305532764962</v>
+        <v>1.154402281745481</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2985,10 +3045,10 @@
         <v>183</v>
       </c>
       <c r="B182" s="1">
-        <v>0.9545434087000064</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="C182">
-        <v>0.7806247497997998</v>
+        <v>0.6454972243679028</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2996,7 +3056,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="1">
-        <v>0.5954583420518295</v>
+        <v>0</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3007,10 +3067,10 @@
         <v>185</v>
       </c>
       <c r="B184" s="1">
-        <v>1.248075441506766</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>1.049090899768143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3018,10 +3078,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="1">
-        <v>0.2763853991962833</v>
+        <v>1.182338308367164</v>
       </c>
       <c r="C185">
-        <v>0.4714045207910317</v>
+        <v>0.6403124237432849</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3029,10 +3089,10 @@
         <v>187</v>
       </c>
       <c r="B186" s="1">
-        <v>0.8682536766906325</v>
+        <v>1.411003084764672</v>
       </c>
       <c r="C186">
-        <v>0.7894706383956841</v>
+        <v>0.8326663997864531</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3040,10 +3100,10 @@
         <v>188</v>
       </c>
       <c r="B187" s="1">
-        <v>0.655554777357089</v>
+        <v>0.3307189138830738</v>
       </c>
       <c r="C187">
-        <v>0.628539361054709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3051,10 +3111,10 @@
         <v>189</v>
       </c>
       <c r="B188" s="1">
-        <v>0.4982608642958916</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C188">
-        <v>0.8569568250501305</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3062,10 +3122,10 @@
         <v>190</v>
       </c>
       <c r="B189" s="1">
-        <v>0.5813347903782768</v>
+        <v>0.5</v>
       </c>
       <c r="C189">
-        <v>0.6998542122237652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3073,10 +3133,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="1">
-        <v>1.107068200247844</v>
+        <v>0.4103259033241448</v>
       </c>
       <c r="C190">
-        <v>1.206045378311055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3084,10 +3144,10 @@
         <v>192</v>
       </c>
       <c r="B191" s="1">
-        <v>0.7196932764020368</v>
+        <v>0</v>
       </c>
       <c r="C191">
-        <v>0.9063269671749657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3095,10 +3155,10 @@
         <v>193</v>
       </c>
       <c r="B192" s="1">
-        <v>0.2874797872880345</v>
+        <v>1.252144974038981</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>0.8213137116947161</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3106,10 +3166,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="1">
-        <v>0.7196932764020368</v>
+        <v>3.877140985600372</v>
       </c>
       <c r="C193">
-        <v>0.6555547773570889</v>
+        <v>4.627094120503709</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3117,10 +3177,10 @@
         <v>195</v>
       </c>
       <c r="B194" s="1">
-        <v>0.9243605054551867</v>
+        <v>0.458257569495584</v>
       </c>
       <c r="C194">
-        <v>0.8907235428302467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3128,10 +3188,10 @@
         <v>196</v>
       </c>
       <c r="B195" s="1">
-        <v>0.6056929133855238</v>
+        <v>0</v>
       </c>
       <c r="C195">
-        <v>0.4330127018922193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3139,10 +3199,10 @@
         <v>197</v>
       </c>
       <c r="B196" s="1">
-        <v>3.047950130825634</v>
+        <v>0</v>
       </c>
       <c r="C196">
-        <v>2.023198787399136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3150,10 +3210,10 @@
         <v>198</v>
       </c>
       <c r="B197" s="1">
-        <v>0.4714045207910317</v>
+        <v>1.856220772310114</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>0.8059776671843953</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3161,10 +3221,230 @@
         <v>199</v>
       </c>
       <c r="B198" s="1">
-        <v>0.73528410979512</v>
+        <v>1.42426733986644</v>
       </c>
       <c r="C198">
-        <v>0.6708203932499369</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" s="1">
+        <v>3.884584919911006</v>
+      </c>
+      <c r="C199">
+        <v>1.674979270186815</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1.388882314251368</v>
+      </c>
+      <c r="C200">
+        <v>0.4330127018922193</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0.558326423395605</v>
+      </c>
+      <c r="C201">
+        <v>0.3307189138830738</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" s="1">
+        <v>0</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" s="1">
+        <v>1.462494064565354</v>
+      </c>
+      <c r="C203">
+        <v>0.6236095644623235</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" s="1">
+        <v>0.3307189138830738</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" s="1">
+        <v>2.165640782770772</v>
+      </c>
+      <c r="C205">
+        <v>0.8470275209825092</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" s="1">
+        <v>0.4479032082388083</v>
+      </c>
+      <c r="C206">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" s="1">
+        <v>0.7806247497997998</v>
+      </c>
+      <c r="C207">
+        <v>0.6849348892187752</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" s="1">
+        <v>0</v>
+      </c>
+      <c r="C208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" s="1">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="C209">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" s="1">
+        <v>1.164646463130784</v>
+      </c>
+      <c r="C210">
+        <v>0.6403124237432849</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" s="1">
+        <v>0.8498365855987975</v>
+      </c>
+      <c r="C211">
+        <v>0.4930066485916347</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" s="1">
+        <v>0.7284313590846836</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" s="1">
+        <v>0.8819171036881968</v>
+      </c>
+      <c r="C213">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" s="1">
+        <v>0.8426500884694863</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" s="1">
+        <v>2.272785857830771</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" s="1">
+        <v>2.649947588580239</v>
+      </c>
+      <c r="C216">
+        <v>2.938064366589375</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0.6614378277661477</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" s="1">
+        <v>0.8906233078822999</v>
+      </c>
+      <c r="C218">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/results/example/rate_std.xlsx
+++ b/results/example/rate_std.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
-  <si>
-    <t>P9_ultra</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+  <si>
+    <t>P9</t>
   </si>
   <si>
     <t>P9+BB_slnc</t>
@@ -31,12 +31,6 @@
     <t>BB_r</t>
   </si>
   <si>
-    <t>CIN-P9-1_l</t>
-  </si>
-  <si>
-    <t>CIN-P9-1_r</t>
-  </si>
-  <si>
     <t>DNa01_l</t>
   </si>
   <si>
@@ -73,27 +67,24 @@
     <t>MooDNg_l</t>
   </si>
   <si>
+    <t>P9-0DN1_l</t>
+  </si>
+  <si>
+    <t>P9-0DN1_r</t>
+  </si>
+  <si>
     <t>P9-cDN1_l</t>
   </si>
   <si>
     <t>P9-cDN1_r</t>
   </si>
   <si>
-    <t>P9-oDN1_l</t>
-  </si>
-  <si>
-    <t>P9-oDN1_r</t>
-  </si>
-  <si>
     <t>P9_l</t>
   </si>
   <si>
     <t>P9_r</t>
   </si>
   <si>
-    <t>neck motor neuron_r</t>
-  </si>
-  <si>
     <t>720575940604735660</t>
   </si>
   <si>
@@ -124,9 +115,6 @@
     <t>720575940606667868</t>
   </si>
   <si>
-    <t>720575940606852018</t>
-  </si>
-  <si>
     <t>720575940607641010</t>
   </si>
   <si>
@@ -157,7 +145,7 @@
     <t>720575940611206514</t>
   </si>
   <si>
-    <t>720575940611772514</t>
+    <t>720575940612629210</t>
   </si>
   <si>
     <t>720575940612766515</t>
@@ -175,9 +163,6 @@
     <t>720575940614963359</t>
   </si>
   <si>
-    <t>720575940615484063</t>
-  </si>
-  <si>
     <t>720575940615626562</t>
   </si>
   <si>
@@ -190,9 +175,6 @@
     <t>720575940615997919</t>
   </si>
   <si>
-    <t>720575940616018956</t>
-  </si>
-  <si>
     <t>720575940616566203</t>
   </si>
   <si>
@@ -232,7 +214,7 @@
     <t>720575940618156829</t>
   </si>
   <si>
-    <t>720575940618167579</t>
+    <t>720575940618165393</t>
   </si>
   <si>
     <t>720575940618177977</t>
@@ -259,9 +241,6 @@
     <t>720575940619681006</t>
   </si>
   <si>
-    <t>720575940619866027</t>
-  </si>
-  <si>
     <t>720575940619876884</t>
   </si>
   <si>
@@ -274,9 +253,6 @@
     <t>720575940620231590</t>
   </si>
   <si>
-    <t>720575940620250328</t>
-  </si>
-  <si>
     <t>720575940620282900</t>
   </si>
   <si>
@@ -337,6 +313,9 @@
     <t>720575940622933130</t>
   </si>
   <si>
+    <t>720575940622998627</t>
+  </si>
+  <si>
     <t>720575940623164515</t>
   </si>
   <si>
@@ -352,9 +331,6 @@
     <t>720575940624163303</t>
   </si>
   <si>
-    <t>720575940624231143</t>
-  </si>
-  <si>
     <t>720575940624336115</t>
   </si>
   <si>
@@ -394,9 +370,6 @@
     <t>720575940626210536</t>
   </si>
   <si>
-    <t>720575940626279486</t>
-  </si>
-  <si>
     <t>720575940626310960</t>
   </si>
   <si>
@@ -415,9 +388,6 @@
     <t>720575940626773523</t>
   </si>
   <si>
-    <t>720575940626812218</t>
-  </si>
-  <si>
     <t>720575940626829852</t>
   </si>
   <si>
@@ -433,9 +403,6 @@
     <t>720575940627348057</t>
   </si>
   <si>
-    <t>720575940627358853</t>
-  </si>
-  <si>
     <t>720575940627361157</t>
   </si>
   <si>
@@ -499,18 +466,15 @@
     <t>720575940630291767</t>
   </si>
   <si>
-    <t>720575940630808591</t>
-  </si>
-  <si>
     <t>720575940630931999</t>
   </si>
   <si>
-    <t>720575940631283267</t>
-  </si>
-  <si>
     <t>720575940631283512</t>
   </si>
   <si>
+    <t>720575940631715896</t>
+  </si>
+  <si>
     <t>720575940631721785</t>
   </si>
   <si>
@@ -541,18 +505,12 @@
     <t>720575940632943315</t>
   </si>
   <si>
-    <t>720575940632944339</t>
-  </si>
-  <si>
     <t>720575940632962786</t>
   </si>
   <si>
     <t>720575940633116256</t>
   </si>
   <si>
-    <t>720575940633270497</t>
-  </si>
-  <si>
     <t>720575940633308371</t>
   </si>
   <si>
@@ -571,18 +529,12 @@
     <t>720575940635170484</t>
   </si>
   <si>
-    <t>720575940635179359</t>
-  </si>
-  <si>
     <t>720575940635771316</t>
   </si>
   <si>
     <t>720575940635776760</t>
   </si>
   <si>
-    <t>720575940635937678</t>
-  </si>
-  <si>
     <t>720575940635942507</t>
   </si>
   <si>
@@ -592,9 +544,6 @@
     <t>720575940636879534</t>
   </si>
   <si>
-    <t>720575940636933751</t>
-  </si>
-  <si>
     <t>720575940637308605</t>
   </si>
   <si>
@@ -604,10 +553,7 @@
     <t>720575940638169917</t>
   </si>
   <si>
-    <t>720575940638196038</t>
-  </si>
-  <si>
-    <t>720575940638681917</t>
+    <t>720575940638664355</t>
   </si>
   <si>
     <t>720575940638989894</t>
@@ -625,9 +571,6 @@
     <t>720575940640696027</t>
   </si>
   <si>
-    <t>720575940641480949</t>
-  </si>
-  <si>
     <t>720575940641585627</t>
   </si>
   <si>
@@ -641,9 +584,6 @@
   </si>
   <si>
     <t>720575940644758308</t>
-  </si>
-  <si>
-    <t>720575940645047831</t>
   </si>
   <si>
     <t>720575940646126190</t>
@@ -1035,7 +975,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C218"/>
+  <dimension ref="A1:C198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1068,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.499766078991394</v>
+        <v>10.64795233314316</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1079,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>10.10390463577764</v>
+        <v>9.277212224944876</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1087,10 +1027,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>2.150193789716019</v>
+        <v>2.841165644981338</v>
       </c>
       <c r="C4">
-        <v>1.78999486944881</v>
+        <v>1.920648038785058</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1098,10 +1038,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>2.699794230842211</v>
+        <v>3.011090610836324</v>
       </c>
       <c r="C5">
-        <v>1.864582169459599</v>
+        <v>2.521904042583698</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1109,10 +1049,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>3.439799735772742</v>
+        <v>3.720961643924263</v>
       </c>
       <c r="C6">
-        <v>2.459448899426229</v>
+        <v>2.33238075793812</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1120,10 +1060,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>4.19311605160437</v>
+        <v>2.801586851926759</v>
       </c>
       <c r="C7">
-        <v>2.709858544893688</v>
+        <v>1.661324772583615</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1131,10 +1071,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>4.432330713694045</v>
+        <v>4.718756898449704</v>
       </c>
       <c r="C8">
-        <v>3.229034943549956</v>
+        <v>3.96316371938716</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1142,10 +1082,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>4.532475409015843</v>
+        <v>6.476024157528204</v>
       </c>
       <c r="C9">
-        <v>1.991370270832513</v>
+        <v>5.986651818838307</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1153,10 +1093,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>6.211458944742549</v>
+        <v>2.206052281036573</v>
       </c>
       <c r="C10">
-        <v>3.930083403129704</v>
+        <v>2.045048220023729</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1164,10 +1104,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>7.781745019952501</v>
+        <v>2.45877114745467</v>
       </c>
       <c r="C11">
-        <v>3.023794525647094</v>
+        <v>1.820866704499688</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1175,10 +1115,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>3.327494886881454</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.93362066830309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1186,10 +1126,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>3.145366963222786</v>
+        <v>0.4714045207910316</v>
       </c>
       <c r="C13">
-        <v>1.61245154965971</v>
+        <v>0.4937279747182557</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1197,7 +1137,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>1.172413793103448</v>
+        <v>0</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1208,10 +1148,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>1.720465053408526</v>
+        <v>1.604161255402129</v>
       </c>
       <c r="C15">
-        <v>0.6740130776245103</v>
+        <v>0.7180219742846005</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1219,10 +1159,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>0.4714045207910317</v>
+        <v>2.393509742802166</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>2.006655592438988</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1230,10 +1170,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>1.746106780494506</v>
+        <v>3.218177538089946</v>
       </c>
       <c r="C17">
-        <v>1.085620296683619</v>
+        <v>2.073376205344531</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1241,10 +1181,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>4.374166587286466</v>
+        <v>2.99555225848813</v>
       </c>
       <c r="C18">
-        <v>2.601068156653254</v>
+        <v>2.086996778999804</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1252,10 +1192,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>5.733430231739305</v>
+        <v>5.647418289212633</v>
       </c>
       <c r="C19">
-        <v>2.4</v>
+        <v>3.964425136973413</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1263,10 +1203,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>3.501745596445038</v>
+        <v>12.41061373717405</v>
       </c>
       <c r="C20">
-        <v>2.139833846093871</v>
+        <v>7.313913681014655</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1274,10 +1214,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>2.489087293679262</v>
+        <v>10.84891187580067</v>
       </c>
       <c r="C21">
-        <v>2.114762923408253</v>
+        <v>11.54296322440646</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1285,10 +1225,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>13.85564465800451</v>
+        <v>0.806225774829855</v>
       </c>
       <c r="C22">
-        <v>14.18563436093791</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1296,10 +1236,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>16.32094768490278</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>12.52446494754256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1307,10 +1247,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>6.046945969293553</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="C24">
-        <v>3.055959569249713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1318,10 +1258,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="1">
-        <v>0.8314794192830981</v>
+        <v>0.6959705453537527</v>
       </c>
       <c r="C25">
-        <v>0.4517539514526256</v>
+        <v>0.4330127018922193</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1340,10 +1280,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>0</v>
+        <v>2.055075018906447</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>2.285218200133682</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1351,10 +1291,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>0.4330127018922193</v>
+        <v>3.295788558482207</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1.931033114394698</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1362,10 +1302,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>1.107068200247844</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1.206045378311055</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1373,10 +1313,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>2.035517952102937</v>
+        <v>1.852625764212033</v>
       </c>
       <c r="C30">
-        <v>2.386070689089771</v>
+        <v>1.818424226264781</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1384,10 +1324,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>2.851872155604873</v>
+        <v>0.74535599249993</v>
       </c>
       <c r="C31">
-        <v>1.984663419547226</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1395,10 +1335,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>1.164646463130784</v>
+        <v>2.695675549220764</v>
       </c>
       <c r="C32">
-        <v>0.6403124237432849</v>
+        <v>1.462166554973392</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1406,10 +1346,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>1.74515201502779</v>
+        <v>2.756003547812585</v>
       </c>
       <c r="C33">
-        <v>1.988857852023506</v>
+        <v>1.563827214098653</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1417,10 +1357,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>3.027466854575877</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>2.924988129130707</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1428,10 +1368,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="1">
-        <v>0.3307189138830738</v>
+        <v>1.252144974038981</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.4948716593053935</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1439,10 +1379,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="1">
-        <v>3.396076167186675</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1.700980109623077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1450,10 +1390,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="1">
-        <v>3.418901707988823</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>1.66032125405497</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1461,10 +1401,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="1">
-        <v>3.895296308797745</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>2.922898105191717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1472,10 +1412,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="1">
-        <v>1.026281851086641</v>
+        <v>1.81628436344337</v>
       </c>
       <c r="C39">
-        <v>0.816496580927726</v>
+        <v>1.013245610238044</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1483,10 +1423,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="1">
-        <v>0.4714045207910317</v>
+        <v>1.292439553712281</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1.14564392373896</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1494,10 +1434,10 @@
         <v>42</v>
       </c>
       <c r="B41" s="1">
-        <v>0</v>
+        <v>0.9830564581955606</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>1.16619037896906</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1516,10 +1456,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="1">
-        <v>1.746106780494506</v>
+        <v>1.047664068296704</v>
       </c>
       <c r="C43">
-        <v>1.782943882708844</v>
+        <v>1.089724735885168</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1527,10 +1467,10 @@
         <v>45</v>
       </c>
       <c r="B44" s="1">
-        <v>1.258305739211792</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.6056929133855239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1538,10 +1478,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="1">
-        <v>1.225310181770823</v>
+        <v>2.70487088982307</v>
       </c>
       <c r="C45">
-        <v>0.8213137116947161</v>
+        <v>2.318180583741604</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1549,10 +1489,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>2.202271554554524</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1.818424226264781</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1560,10 +1500,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="1">
-        <v>1.078693768830422</v>
+        <v>0.8887803753208976</v>
       </c>
       <c r="C47">
-        <v>0.6400954789890506</v>
+        <v>0.8907235428302467</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1571,10 +1511,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>1.577939474296213</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1.586050300449376</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1582,10 +1522,10 @@
         <v>50</v>
       </c>
       <c r="B49" s="1">
-        <v>2.257786526667214</v>
+        <v>0.7064381221422574</v>
       </c>
       <c r="C49">
-        <v>1.055259876619127</v>
+        <v>0.7284313590846836</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1593,10 +1533,10 @@
         <v>51</v>
       </c>
       <c r="B50" s="1">
-        <v>2.368543856465402</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="C50">
-        <v>1.825741858350554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1604,10 +1544,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="1">
-        <v>0.7905694150420949</v>
+        <v>0.6571287406727709</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>0.628539361054709</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1626,10 +1566,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="1">
-        <v>3.424746543744353</v>
+        <v>1.05821665324597</v>
       </c>
       <c r="C53">
-        <v>2.031966753883756</v>
+        <v>0.9333240326917549</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1637,10 +1577,10 @@
         <v>55</v>
       </c>
       <c r="B54" s="1">
-        <v>0.3903123748998999</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0.4898979485566357</v>
+        <v>0.4330127018922193</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1648,7 +1588,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="1">
-        <v>0</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1659,10 +1599,10 @@
         <v>57</v>
       </c>
       <c r="B56" s="1">
-        <v>0.4479032082388083</v>
+        <v>0.73528410979512</v>
       </c>
       <c r="C56">
-        <v>0.3</v>
+        <v>0.6708203932499369</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1670,10 +1610,10 @@
         <v>58</v>
       </c>
       <c r="B57" s="1">
-        <v>0.4330127018922193</v>
+        <v>0.9090593428863095</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>0.8907235428302467</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1681,10 +1621,10 @@
         <v>59</v>
       </c>
       <c r="B58" s="1">
-        <v>0</v>
+        <v>5.264239947249956</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>3.995692124720767</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1692,10 +1632,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="1">
-        <v>1.02867475187853</v>
+        <v>0.4898979485566357</v>
       </c>
       <c r="C59">
-        <v>0.6343239424027171</v>
+        <v>0.3499271061118826</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1703,10 +1643,10 @@
         <v>61</v>
       </c>
       <c r="B60" s="1">
-        <v>1.577621275493231</v>
+        <v>0.9576845844606717</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>0.9150793638884732</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1714,7 +1654,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="1">
-        <v>0</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1725,10 +1665,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="1">
-        <v>0.8906233078822999</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1736,7 +1676,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="1">
-        <v>0.7880950133074057</v>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1747,10 +1687,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="1">
-        <v>4.711215931747934</v>
+        <v>2.591947651443605</v>
       </c>
       <c r="C64">
-        <v>4.289004028391155</v>
+        <v>1.728958777478852</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1758,10 +1698,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="1">
-        <v>0.6849348892187752</v>
+        <v>1.557776192739723</v>
       </c>
       <c r="C65">
-        <v>0.4</v>
+        <v>1.801542548916222</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1769,10 +1709,10 @@
         <v>67</v>
       </c>
       <c r="B66" s="1">
-        <v>0.9420721840708386</v>
+        <v>0.6571287406727709</v>
       </c>
       <c r="C66">
-        <v>0.4714045207910317</v>
+        <v>0.628539361054709</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1780,10 +1720,10 @@
         <v>68</v>
       </c>
       <c r="B67" s="1">
-        <v>0</v>
+        <v>3.250470051478026</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>2.45877114745467</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1791,10 +1731,10 @@
         <v>69</v>
       </c>
       <c r="B68" s="1">
-        <v>0</v>
+        <v>1.184215716795435</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>0.9428090415820632</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1802,10 +1742,10 @@
         <v>70</v>
       </c>
       <c r="B69" s="1">
-        <v>0</v>
+        <v>0.73528410979512</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>0.6555547773570889</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1813,10 +1753,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="1">
-        <v>3.247049943153528</v>
+        <v>1.743559577416269</v>
       </c>
       <c r="C70">
-        <v>1.082599965042499</v>
+        <v>1.299038105676658</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1824,10 +1764,10 @@
         <v>72</v>
       </c>
       <c r="B71" s="1">
-        <v>0</v>
+        <v>2.750695644852815</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2.408318915758459</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1835,10 +1775,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="1">
-        <v>0.4479032082388083</v>
+        <v>1.7083229633002</v>
       </c>
       <c r="C72">
-        <v>0.3</v>
+        <v>1.253919474921247</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1846,10 +1786,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="1">
-        <v>3.515047020390418</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="C73">
-        <v>2.629744389775469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1857,10 +1797,10 @@
         <v>75</v>
       </c>
       <c r="B74" s="1">
-        <v>1.70926884953772</v>
+        <v>4.09878030638384</v>
       </c>
       <c r="C74">
-        <v>0.7806247497997998</v>
+        <v>3.038457210859192</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1868,10 +1808,10 @@
         <v>76</v>
       </c>
       <c r="B75" s="1">
-        <v>0.8819171036881968</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="C75">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1879,10 +1819,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="1">
-        <v>1.520436909267112</v>
+        <v>0.6757197808427856</v>
       </c>
       <c r="C76">
-        <v>0.7592027982620249</v>
+        <v>0.5994789404140899</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1890,10 +1830,10 @@
         <v>78</v>
       </c>
       <c r="B77" s="1">
-        <v>2.633932421304693</v>
+        <v>0</v>
       </c>
       <c r="C77">
-        <v>1.372463664253189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1901,10 +1841,10 @@
         <v>79</v>
       </c>
       <c r="B78" s="1">
-        <v>1.5</v>
+        <v>1.703643155123749</v>
       </c>
       <c r="C78">
-        <v>0.7664854858377946</v>
+        <v>1.309952797378954</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1912,10 +1852,10 @@
         <v>80</v>
       </c>
       <c r="B79" s="1">
-        <v>0</v>
+        <v>0.9712418121129114</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.6959705453537527</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1934,10 +1874,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="1">
-        <v>3.318132004607412</v>
+        <v>3.771383477363889</v>
       </c>
       <c r="C81">
-        <v>4.823092599382913</v>
+        <v>2.669997919266772</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1945,7 +1885,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="1">
-        <v>0</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1956,10 +1896,10 @@
         <v>84</v>
       </c>
       <c r="B83" s="1">
-        <v>0.9629826790438176</v>
+        <v>0</v>
       </c>
       <c r="C83">
-        <v>0.3499271061118826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1967,7 +1907,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="1">
-        <v>0</v>
+        <v>0.3499271061118826</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1978,7 +1918,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1989,10 +1929,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="1">
-        <v>1.511274500970605</v>
+        <v>1.0066347944848</v>
       </c>
       <c r="C86">
-        <v>0.7592027982620249</v>
+        <v>1.067187372905475</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2000,10 +1940,10 @@
         <v>88</v>
       </c>
       <c r="B87" s="1">
-        <v>0.6849348892187752</v>
+        <v>0.4</v>
       </c>
       <c r="C87">
-        <v>0.4330127018922193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2011,10 +1951,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="1">
-        <v>0</v>
+        <v>1.834545054108935</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>1.436043948569201</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2022,10 +1962,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="1">
-        <v>4.502961988143655</v>
+        <v>1.097446843705856</v>
       </c>
       <c r="C89">
-        <v>2.970222587992728</v>
+        <v>0.6781419786518724</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2033,10 +1973,10 @@
         <v>91</v>
       </c>
       <c r="B90" s="1">
-        <v>0</v>
+        <v>2.562334005463682</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>1.601735170231195</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2044,7 +1984,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="1">
-        <v>1.039679173897645</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2055,10 +1995,10 @@
         <v>93</v>
       </c>
       <c r="B92" s="1">
-        <v>0</v>
+        <v>0.7767276132106846</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>0.9791208740244551</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2066,10 +2006,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="1">
-        <v>0</v>
+        <v>3.78667253520672</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>2.959166549328825</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2077,10 +2017,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="1">
-        <v>1.727534370135657</v>
+        <v>2.290317784840251</v>
       </c>
       <c r="C94">
-        <v>0.5983516452371671</v>
+        <v>1.448754254140049</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2088,10 +2028,10 @@
         <v>96</v>
       </c>
       <c r="B95" s="1">
-        <v>0.3726779962499649</v>
+        <v>1.454494948618095</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>1.048185114039356</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2099,10 +2039,10 @@
         <v>97</v>
       </c>
       <c r="B96" s="1">
-        <v>2.472290885438488</v>
+        <v>0.4898979485566357</v>
       </c>
       <c r="C96">
-        <v>2.051828452868319</v>
+        <v>0.3499271061118826</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2110,10 +2050,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="1">
-        <v>0.9921567416492215</v>
+        <v>0.4991341984846218</v>
       </c>
       <c r="C97">
-        <v>0.5916079783099616</v>
+        <v>0.3499271061118826</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2121,10 +2061,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="1">
-        <v>2.39443799947573</v>
+        <v>1.367188110455104</v>
       </c>
       <c r="C98">
-        <v>1.886796226411321</v>
+        <v>1.454494948618095</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2132,7 +2072,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="1">
-        <v>0.4453617714151233</v>
+        <v>0</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2143,10 +2083,10 @@
         <v>101</v>
       </c>
       <c r="B100" s="1">
-        <v>1.131493180098314</v>
+        <v>0.4</v>
       </c>
       <c r="C100">
-        <v>0.415739709641549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2154,10 +2094,10 @@
         <v>102</v>
       </c>
       <c r="B101" s="1">
-        <v>3.63318042491699</v>
+        <v>6.03508261933689</v>
       </c>
       <c r="C101">
-        <v>3.305887004857983</v>
+        <v>4.709446771000697</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2165,10 +2105,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="1">
-        <v>3.400816895329055</v>
+        <v>0.3608012122941099</v>
       </c>
       <c r="C102">
-        <v>2.418447619628941</v>
+        <v>0.3499271061118827</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2176,10 +2116,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="1">
-        <v>1.943936441576444</v>
+        <v>5.750665576947026</v>
       </c>
       <c r="C103">
-        <v>1.205417813306796</v>
+        <v>4.874423042781577</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2187,10 +2127,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="1">
-        <v>0.6849348892187752</v>
+        <v>1.536229149573722</v>
       </c>
       <c r="C104">
-        <v>0.4</v>
+        <v>1.28062484748657</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2198,10 +2138,10 @@
         <v>106</v>
       </c>
       <c r="B105" s="1">
-        <v>0.6441510347391795</v>
+        <v>0.9741459348873079</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1.268857754044952</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2209,10 +2149,10 @@
         <v>107</v>
       </c>
       <c r="B106" s="1">
-        <v>0</v>
+        <v>3.46759782758577</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>2.81120838110295</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2220,7 +2160,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="1">
-        <v>0</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2231,10 +2171,10 @@
         <v>109</v>
       </c>
       <c r="B108" s="1">
-        <v>5.385164807134504</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>4.434210439550904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2242,10 +2182,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="1">
-        <v>0.7556372504853025</v>
+        <v>0.9202613255876838</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>0.8907235428302467</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2253,10 +2193,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="1">
-        <v>5.781392103051575</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>3.074999398662567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2264,10 +2204,10 @@
         <v>112</v>
       </c>
       <c r="B111" s="1">
-        <v>0</v>
+        <v>2.6503272805217</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2275,10 +2215,10 @@
         <v>113</v>
       </c>
       <c r="B112" s="1">
-        <v>2.616401260425387</v>
+        <v>2.322833518691246</v>
       </c>
       <c r="C112">
-        <v>2.01218510303821</v>
+        <v>1.8427033281447</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2286,10 +2226,10 @@
         <v>114</v>
       </c>
       <c r="B113" s="1">
-        <v>0.9682458365518543</v>
+        <v>0.3221897397089212</v>
       </c>
       <c r="C113">
-        <v>0.3726779962499649</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2297,10 +2237,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="1">
-        <v>3.581394824490717</v>
+        <v>0</v>
       </c>
       <c r="C114">
-        <v>1.49248115565993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2308,10 +2248,10 @@
         <v>116</v>
       </c>
       <c r="B115" s="1">
-        <v>0</v>
+        <v>0.9830564581955606</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>1.333170562981346</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2319,7 +2259,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="1">
-        <v>0</v>
+        <v>0.3142696805273545</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2330,7 +2270,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="1">
-        <v>0.7880950133074057</v>
+        <v>0.4</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2341,7 +2281,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2352,10 +2292,10 @@
         <v>120</v>
       </c>
       <c r="B119" s="1">
-        <v>2.616515592568454</v>
+        <v>0.7196932764020368</v>
       </c>
       <c r="C119">
-        <v>1.048220125784067</v>
+        <v>0.6555547773570889</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2363,10 +2303,10 @@
         <v>121</v>
       </c>
       <c r="B120" s="1">
-        <v>2.974147870492581</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>2.044233080861595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2374,10 +2314,10 @@
         <v>122</v>
       </c>
       <c r="B121" s="1">
-        <v>0.6102859818083951</v>
+        <v>0.8068715304598785</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>0.3812200410828153</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2396,10 +2336,10 @@
         <v>124</v>
       </c>
       <c r="B123" s="1">
-        <v>1.276247963471804</v>
+        <v>0.4898979485566357</v>
       </c>
       <c r="C123">
-        <v>0.8213137116947161</v>
+        <v>0.3499271061118826</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2407,10 +2347,10 @@
         <v>125</v>
       </c>
       <c r="B124" s="1">
-        <v>0.3726779962499649</v>
+        <v>2.883670500517622</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1.704894913672589</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2418,10 +2358,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="1">
-        <v>0.933138949631687</v>
+        <v>2.725191124795959</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>2.39002556936578</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2429,7 +2369,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="1">
-        <v>0.3726779962499649</v>
+        <v>0.4</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2440,10 +2380,10 @@
         <v>128</v>
       </c>
       <c r="B127" s="1">
-        <v>0.4000000000000001</v>
+        <v>0.73528410979512</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>0.6555547773570889</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2451,10 +2391,10 @@
         <v>129</v>
       </c>
       <c r="B128" s="1">
-        <v>0.8819171036881968</v>
+        <v>0.699205898780101</v>
       </c>
       <c r="C128">
-        <v>0.4</v>
+        <v>0.6871842709362768</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2462,10 +2402,10 @@
         <v>130</v>
       </c>
       <c r="B129" s="1">
-        <v>0</v>
+        <v>1.127312438205724</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>0.3726779962499649</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2473,10 +2413,10 @@
         <v>131</v>
       </c>
       <c r="B130" s="1">
-        <v>2.072036035722674</v>
+        <v>2.610809554642438</v>
       </c>
       <c r="C130">
-        <v>0.816496580927726</v>
+        <v>2.012358511016242</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2495,7 +2435,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="1">
-        <v>0</v>
+        <v>0.4213250442347432</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2506,10 +2446,10 @@
         <v>134</v>
       </c>
       <c r="B133" s="1">
-        <v>0.6849348892187752</v>
+        <v>1.972026594366539</v>
       </c>
       <c r="C133">
-        <v>0.4</v>
+        <v>1.668332500832293</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2517,10 +2457,10 @@
         <v>135</v>
       </c>
       <c r="B134" s="1">
-        <v>3.620313061969457</v>
+        <v>1.063098073929635</v>
       </c>
       <c r="C134">
-        <v>1.719172927763684</v>
+        <v>0.6123724356957945</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2528,10 +2468,10 @@
         <v>136</v>
       </c>
       <c r="B135" s="1">
-        <v>4.277720057330644</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>2.180978373727412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2539,10 +2479,10 @@
         <v>137</v>
       </c>
       <c r="B136" s="1">
-        <v>0.3726779962499649</v>
+        <v>1.659986613065164</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>1.448754254140049</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2550,10 +2490,10 @@
         <v>138</v>
       </c>
       <c r="B137" s="1">
-        <v>0.8819171036881968</v>
+        <v>1.179208439750453</v>
       </c>
       <c r="C137">
-        <v>0.4</v>
+        <v>1.032348751457897</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2561,10 +2501,10 @@
         <v>139</v>
       </c>
       <c r="B138" s="1">
-        <v>0.4330127018922193</v>
+        <v>0.9140780887664627</v>
       </c>
       <c r="C138">
-        <v>0</v>
+        <v>0.8907235428302467</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2572,10 +2512,10 @@
         <v>140</v>
       </c>
       <c r="B139" s="1">
-        <v>0.4</v>
+        <v>2.738409919805449</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>1.795054935711501</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2583,10 +2523,10 @@
         <v>141</v>
       </c>
       <c r="B140" s="1">
-        <v>2.404625172916191</v>
+        <v>0.655554777357089</v>
       </c>
       <c r="C140">
-        <v>0.6740130776245103</v>
+        <v>0.628539361054709</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2594,10 +2534,10 @@
         <v>142</v>
       </c>
       <c r="B141" s="1">
-        <v>2.449489742783178</v>
+        <v>1.316561177208767</v>
       </c>
       <c r="C141">
-        <v>1.039390403059553</v>
+        <v>1.302152247482704</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2605,10 +2545,10 @@
         <v>143</v>
       </c>
       <c r="B142" s="1">
-        <v>1.814754345175493</v>
+        <v>2.407396011369039</v>
       </c>
       <c r="C142">
-        <v>0.4714045207910317</v>
+        <v>1.882374387132733</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2616,7 +2556,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="1">
-        <v>0</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2627,10 +2567,10 @@
         <v>145</v>
       </c>
       <c r="B144" s="1">
-        <v>2.530919903030429</v>
+        <v>3.24636548911069</v>
       </c>
       <c r="C144">
-        <v>2.216353361317239</v>
+        <v>2.44131112314674</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2638,10 +2578,10 @@
         <v>146</v>
       </c>
       <c r="B145" s="1">
-        <v>1.21335164821342</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>0.8637671850678283</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2660,10 +2600,10 @@
         <v>148</v>
       </c>
       <c r="B147" s="1">
-        <v>2.717024516308644</v>
+        <v>1.663055938177585</v>
       </c>
       <c r="C147">
-        <v>1.765408356915381</v>
+        <v>1.374368541872554</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2671,10 +2611,10 @@
         <v>149</v>
       </c>
       <c r="B148" s="1">
-        <v>1.051939144494025</v>
+        <v>0</v>
       </c>
       <c r="C148">
-        <v>0.618241233033047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2682,10 +2622,10 @@
         <v>150</v>
       </c>
       <c r="B149" s="1">
-        <v>0.7880950133074057</v>
+        <v>1.743559577416269</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>1.299038105676658</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2693,10 +2633,10 @@
         <v>151</v>
       </c>
       <c r="B150" s="1">
-        <v>3.575378767813745</v>
+        <v>3.690979996333403</v>
       </c>
       <c r="C150">
-        <v>1.145157395091875</v>
+        <v>2.360790827950103</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2704,10 +2644,10 @@
         <v>152</v>
       </c>
       <c r="B151" s="1">
-        <v>0.4479032082388083</v>
+        <v>4.211756033875762</v>
       </c>
       <c r="C151">
-        <v>0.3</v>
+        <v>3.411744421846397</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2715,10 +2655,10 @@
         <v>153</v>
       </c>
       <c r="B152" s="1">
-        <v>2.256841450641434</v>
+        <v>0</v>
       </c>
       <c r="C152">
-        <v>1.608332892742529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2726,10 +2666,10 @@
         <v>154</v>
       </c>
       <c r="B153" s="1">
-        <v>2.857543622686372</v>
+        <v>3.885013942488925</v>
       </c>
       <c r="C153">
-        <v>2.385372088375313</v>
+        <v>3.687817782917155</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2737,10 +2677,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="1">
-        <v>0</v>
+        <v>3.674083407992923</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>3.610016928245936</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2748,10 +2688,10 @@
         <v>156</v>
       </c>
       <c r="B155" s="1">
-        <v>2.619584360585133</v>
+        <v>0</v>
       </c>
       <c r="C155">
-        <v>2.36196716507425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2759,10 +2699,10 @@
         <v>157</v>
       </c>
       <c r="B156" s="1">
-        <v>0</v>
+        <v>0.6267831705280087</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>0.3307189138830738</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2770,10 +2710,10 @@
         <v>158</v>
       </c>
       <c r="B157" s="1">
-        <v>0</v>
+        <v>1.107068200247844</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>1.206045378311055</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2781,10 +2721,10 @@
         <v>159</v>
       </c>
       <c r="B158" s="1">
-        <v>2.632278269653284</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>2.167692065051881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2792,7 +2732,7 @@
         <v>160</v>
       </c>
       <c r="B159" s="1">
-        <v>0</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2803,10 +2743,10 @@
         <v>161</v>
       </c>
       <c r="B160" s="1">
-        <v>0</v>
+        <v>1.107068200247844</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>1.206045378311055</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2814,10 +2754,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="1">
-        <v>1.520436909267112</v>
+        <v>1.387948125831798</v>
       </c>
       <c r="C161">
-        <v>0.7592027982620249</v>
+        <v>1.309307341415954</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2825,10 +2765,10 @@
         <v>163</v>
       </c>
       <c r="B162" s="1">
-        <v>0</v>
+        <v>2.315032397181517</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>2.240721609958126</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2836,10 +2776,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="1">
-        <v>2.848196310337864</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C163">
-        <v>4.088058490557862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2847,10 +2787,10 @@
         <v>165</v>
       </c>
       <c r="B164" s="1">
-        <v>0</v>
+        <v>3.346782223048532</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>2.67854497341433</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2858,10 +2798,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="1">
-        <v>3.971565602295061</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C165">
-        <v>3.825208781520589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2869,10 +2809,10 @@
         <v>167</v>
       </c>
       <c r="B166" s="1">
-        <v>4.00610645001963</v>
+        <v>1.635074734608514</v>
       </c>
       <c r="C166">
-        <v>3.358074845304473</v>
+        <v>1.253919474921247</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2880,10 +2820,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="1">
-        <v>0</v>
+        <v>1.50406855635713</v>
       </c>
       <c r="C167">
-        <v>0</v>
+        <v>1.135751097536584</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2891,10 +2831,10 @@
         <v>169</v>
       </c>
       <c r="B168" s="1">
-        <v>0.7178482586514922</v>
+        <v>1.799555500672319</v>
       </c>
       <c r="C168">
-        <v>0</v>
+        <v>1.25554326444328</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2902,10 +2842,10 @@
         <v>170</v>
       </c>
       <c r="B169" s="1">
-        <v>1.01267477705413</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="C169">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2913,10 +2853,10 @@
         <v>171</v>
       </c>
       <c r="B170" s="1">
-        <v>0</v>
+        <v>0.9991996797437438</v>
       </c>
       <c r="C170">
-        <v>0</v>
+        <v>1.192261549873091</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2924,10 +2864,10 @@
         <v>172</v>
       </c>
       <c r="B171" s="1">
-        <v>0</v>
+        <v>1.74977952755818</v>
       </c>
       <c r="C171">
-        <v>0</v>
+        <v>1.224744871391589</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2935,10 +2875,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="1">
-        <v>1.176470588235294</v>
+        <v>0.77138921583987</v>
       </c>
       <c r="C172">
-        <v>0.6403124237432849</v>
+        <v>0.628539361054709</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2946,10 +2886,10 @@
         <v>174</v>
       </c>
       <c r="B173" s="1">
-        <v>1.58308964986389</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C173">
-        <v>0.642824346533225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2957,7 +2897,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="1">
-        <v>0</v>
+        <v>0.4841229182759271</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -2968,10 +2908,10 @@
         <v>176</v>
       </c>
       <c r="B175" s="1">
-        <v>1.289271973720914</v>
+        <v>0.9431860898041277</v>
       </c>
       <c r="C175">
-        <v>0.9534625892455924</v>
+        <v>1.14564392373896</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2979,10 +2919,10 @@
         <v>177</v>
       </c>
       <c r="B176" s="1">
-        <v>0</v>
+        <v>4.302970550161314</v>
       </c>
       <c r="C176">
-        <v>0</v>
+        <v>3.211956828269438</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2990,7 +2930,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="1">
-        <v>0</v>
+        <v>0.2420614591379636</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3001,10 +2941,10 @@
         <v>179</v>
       </c>
       <c r="B178" s="1">
-        <v>2.867441755680876</v>
+        <v>0</v>
       </c>
       <c r="C178">
-        <v>1.17310761419409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3012,10 +2952,10 @@
         <v>180</v>
       </c>
       <c r="B179" s="1">
-        <v>0</v>
+        <v>1.318529638712481</v>
       </c>
       <c r="C179">
-        <v>0</v>
+        <v>0.4823763889427199</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3023,10 +2963,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="1">
-        <v>1.704501523550795</v>
+        <v>0</v>
       </c>
       <c r="C180">
-        <v>0.7810249675906654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3034,10 +2974,10 @@
         <v>182</v>
       </c>
       <c r="B181" s="1">
-        <v>2.426932219902319</v>
+        <v>2.738409919805449</v>
       </c>
       <c r="C181">
-        <v>1.154402281745481</v>
+        <v>2.048305532764962</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3045,10 +2985,10 @@
         <v>183</v>
       </c>
       <c r="B182" s="1">
-        <v>1.414213562373095</v>
+        <v>0.9545434087000064</v>
       </c>
       <c r="C182">
-        <v>0.6454972243679028</v>
+        <v>0.7806247497997998</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3056,7 +2996,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="1">
-        <v>0</v>
+        <v>0.5954583420518295</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3067,10 +3007,10 @@
         <v>185</v>
       </c>
       <c r="B184" s="1">
-        <v>0</v>
+        <v>1.248075441506766</v>
       </c>
       <c r="C184">
-        <v>0</v>
+        <v>1.049090899768143</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3078,10 +3018,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="1">
-        <v>1.182338308367164</v>
+        <v>0.2763853991962833</v>
       </c>
       <c r="C185">
-        <v>0.6403124237432849</v>
+        <v>0.4714045207910317</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3089,10 +3029,10 @@
         <v>187</v>
       </c>
       <c r="B186" s="1">
-        <v>1.411003084764672</v>
+        <v>0.8682536766906325</v>
       </c>
       <c r="C186">
-        <v>0.8326663997864531</v>
+        <v>0.7894706383956841</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3100,10 +3040,10 @@
         <v>188</v>
       </c>
       <c r="B187" s="1">
-        <v>0.3307189138830738</v>
+        <v>0.655554777357089</v>
       </c>
       <c r="C187">
-        <v>0</v>
+        <v>0.628539361054709</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3111,10 +3051,10 @@
         <v>189</v>
       </c>
       <c r="B188" s="1">
-        <v>0.4714045207910317</v>
+        <v>0.4982608642958916</v>
       </c>
       <c r="C188">
-        <v>0.4</v>
+        <v>0.8569568250501305</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3122,10 +3062,10 @@
         <v>190</v>
       </c>
       <c r="B189" s="1">
-        <v>0.5</v>
+        <v>0.5813347903782768</v>
       </c>
       <c r="C189">
-        <v>0</v>
+        <v>0.6998542122237652</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3133,10 +3073,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="1">
-        <v>0.4103259033241448</v>
+        <v>1.107068200247844</v>
       </c>
       <c r="C190">
-        <v>0</v>
+        <v>1.206045378311055</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3144,10 +3084,10 @@
         <v>192</v>
       </c>
       <c r="B191" s="1">
-        <v>0</v>
+        <v>0.7196932764020368</v>
       </c>
       <c r="C191">
-        <v>0</v>
+        <v>0.9063269671749657</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3155,10 +3095,10 @@
         <v>193</v>
       </c>
       <c r="B192" s="1">
-        <v>1.252144974038981</v>
+        <v>0.2874797872880345</v>
       </c>
       <c r="C192">
-        <v>0.8213137116947161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3166,10 +3106,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="1">
-        <v>3.877140985600372</v>
+        <v>0.7196932764020368</v>
       </c>
       <c r="C193">
-        <v>4.627094120503709</v>
+        <v>0.6555547773570889</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3177,10 +3117,10 @@
         <v>195</v>
       </c>
       <c r="B194" s="1">
-        <v>0.458257569495584</v>
+        <v>0.9243605054551867</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>0.8907235428302467</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3188,10 +3128,10 @@
         <v>196</v>
       </c>
       <c r="B195" s="1">
-        <v>0</v>
+        <v>0.6056929133855238</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>0.4330127018922193</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3199,10 +3139,10 @@
         <v>197</v>
       </c>
       <c r="B196" s="1">
-        <v>0</v>
+        <v>3.047950130825634</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>2.023198787399136</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3210,10 +3150,10 @@
         <v>198</v>
       </c>
       <c r="B197" s="1">
-        <v>1.856220772310114</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="C197">
-        <v>0.8059776671843953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3221,230 +3161,10 @@
         <v>199</v>
       </c>
       <c r="B198" s="1">
-        <v>1.42426733986644</v>
+        <v>0.73528410979512</v>
       </c>
       <c r="C198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B199" s="1">
-        <v>3.884584919911006</v>
-      </c>
-      <c r="C199">
-        <v>1.674979270186815</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B200" s="1">
-        <v>1.388882314251368</v>
-      </c>
-      <c r="C200">
-        <v>0.4330127018922193</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B201" s="1">
-        <v>0.558326423395605</v>
-      </c>
-      <c r="C201">
-        <v>0.3307189138830738</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B202" s="1">
-        <v>0</v>
-      </c>
-      <c r="C202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B203" s="1">
-        <v>1.462494064565354</v>
-      </c>
-      <c r="C203">
-        <v>0.6236095644623235</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B204" s="1">
-        <v>0.3307189138830738</v>
-      </c>
-      <c r="C204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B205" s="1">
-        <v>2.165640782770772</v>
-      </c>
-      <c r="C205">
-        <v>0.8470275209825092</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B206" s="1">
-        <v>0.4479032082388083</v>
-      </c>
-      <c r="C206">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B207" s="1">
-        <v>0.7806247497997998</v>
-      </c>
-      <c r="C207">
-        <v>0.6849348892187752</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B208" s="1">
-        <v>0</v>
-      </c>
-      <c r="C208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B209" s="1">
-        <v>0.4000000000000001</v>
-      </c>
-      <c r="C209">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B210" s="1">
-        <v>1.164646463130784</v>
-      </c>
-      <c r="C210">
-        <v>0.6403124237432849</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B211" s="1">
-        <v>0.8498365855987975</v>
-      </c>
-      <c r="C211">
-        <v>0.4930066485916347</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B212" s="1">
-        <v>0.7284313590846836</v>
-      </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B213" s="1">
-        <v>0.8819171036881968</v>
-      </c>
-      <c r="C213">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B214" s="1">
-        <v>0.8426500884694863</v>
-      </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B215" s="1">
-        <v>2.272785857830771</v>
-      </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B216" s="1">
-        <v>2.649947588580239</v>
-      </c>
-      <c r="C216">
-        <v>2.938064366589375</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B217" s="1">
-        <v>0.6614378277661477</v>
-      </c>
-      <c r="C217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B218" s="1">
-        <v>0.8906233078822999</v>
-      </c>
-      <c r="C218">
-        <v>0.4</v>
+        <v>0.6708203932499369</v>
       </c>
     </row>
   </sheetData>

--- a/results/example/rate_std.xlsx
+++ b/results/example/rate_std.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>P9</t>
   </si>
@@ -22,7 +22,7 @@
     <t>P9+BB_slnc</t>
   </si>
   <si>
-    <t>flyid</t>
+    <t>database_id</t>
   </si>
   <si>
     <t>BB_l</t>
@@ -31,6 +31,12 @@
     <t>BB_r</t>
   </si>
   <si>
+    <t>CIN-P9-1_l</t>
+  </si>
+  <si>
+    <t>CIN-P9-1_r</t>
+  </si>
+  <si>
     <t>DNa01_l</t>
   </si>
   <si>
@@ -67,24 +73,27 @@
     <t>MooDNg_l</t>
   </si>
   <si>
-    <t>P9-0DN1_l</t>
-  </si>
-  <si>
-    <t>P9-0DN1_r</t>
-  </si>
-  <si>
     <t>P9-cDN1_l</t>
   </si>
   <si>
     <t>P9-cDN1_r</t>
   </si>
   <si>
+    <t>P9-oDN1_l</t>
+  </si>
+  <si>
+    <t>P9-oDN1_r</t>
+  </si>
+  <si>
     <t>P9_l</t>
   </si>
   <si>
     <t>P9_r</t>
   </si>
   <si>
+    <t>neck motor neuron_r</t>
+  </si>
+  <si>
     <t>720575940604735660</t>
   </si>
   <si>
@@ -145,9 +154,6 @@
     <t>720575940611206514</t>
   </si>
   <si>
-    <t>720575940612629210</t>
-  </si>
-  <si>
     <t>720575940612766515</t>
   </si>
   <si>
@@ -214,9 +220,6 @@
     <t>720575940618156829</t>
   </si>
   <si>
-    <t>720575940618165393</t>
-  </si>
-  <si>
     <t>720575940618177977</t>
   </si>
   <si>
@@ -259,9 +262,6 @@
     <t>720575940620298772</t>
   </si>
   <si>
-    <t>720575940620714150</t>
-  </si>
-  <si>
     <t>720575940620746478</t>
   </si>
   <si>
@@ -313,9 +313,6 @@
     <t>720575940622933130</t>
   </si>
   <si>
-    <t>720575940622998627</t>
-  </si>
-  <si>
     <t>720575940623164515</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
     <t>720575940624816115</t>
   </si>
   <si>
-    <t>720575940624943084</t>
-  </si>
-  <si>
     <t>720575940624967463</t>
   </si>
   <si>
@@ -388,6 +382,9 @@
     <t>720575940626773523</t>
   </si>
   <si>
+    <t>720575940626812218</t>
+  </si>
+  <si>
     <t>720575940626829852</t>
   </si>
   <si>
@@ -466,15 +463,15 @@
     <t>720575940630291767</t>
   </si>
   <si>
+    <t>720575940630808591</t>
+  </si>
+  <si>
     <t>720575940630931999</t>
   </si>
   <si>
     <t>720575940631283512</t>
   </si>
   <si>
-    <t>720575940631715896</t>
-  </si>
-  <si>
     <t>720575940631721785</t>
   </si>
   <si>
@@ -523,6 +520,9 @@
     <t>720575940634274017</t>
   </si>
   <si>
+    <t>720575940634295191</t>
+  </si>
+  <si>
     <t>720575940634428058</t>
   </si>
   <si>
@@ -544,6 +544,9 @@
     <t>720575940636879534</t>
   </si>
   <si>
+    <t>720575940636933751</t>
+  </si>
+  <si>
     <t>720575940637308605</t>
   </si>
   <si>
@@ -553,7 +556,7 @@
     <t>720575940638169917</t>
   </si>
   <si>
-    <t>720575940638664355</t>
+    <t>720575940638196038</t>
   </si>
   <si>
     <t>720575940638989894</t>
@@ -975,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1008,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.64795233314316</v>
+        <v>10.5137476139048</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1019,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.277212224944876</v>
+        <v>12.90202395836491</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1027,10 +1030,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>2.841165644981338</v>
+        <v>1.645195023900409</v>
       </c>
       <c r="C4">
-        <v>1.920648038785058</v>
+        <v>1.580787426850583</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1038,10 +1041,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>3.011090610836324</v>
+        <v>1.787611690372256</v>
       </c>
       <c r="C5">
-        <v>2.521904042583698</v>
+        <v>2.357258294431619</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1049,10 +1052,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>3.720961643924263</v>
+        <v>2.462158041682585</v>
       </c>
       <c r="C6">
-        <v>2.33238075793812</v>
+        <v>3.148897514298544</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1060,10 +1063,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>2.801586851926759</v>
+        <v>2.403931964280372</v>
       </c>
       <c r="C7">
-        <v>1.661324772583615</v>
+        <v>2.729265265394496</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1071,10 +1074,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>4.718756898449704</v>
+        <v>3.144837038703277</v>
       </c>
       <c r="C8">
-        <v>3.96316371938716</v>
+        <v>3.480740661921763</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1082,10 +1085,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>6.476024157528204</v>
+        <v>2.442448680229649</v>
       </c>
       <c r="C9">
-        <v>5.986651818838307</v>
+        <v>2.012185103038209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1093,10 +1096,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>2.206052281036573</v>
+        <v>4.551434450319543</v>
       </c>
       <c r="C10">
-        <v>2.045048220023729</v>
+        <v>4.312256434345661</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1104,10 +1107,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>2.45877114745467</v>
+        <v>6.02485592266644</v>
       </c>
       <c r="C11">
-        <v>1.820866704499688</v>
+        <v>4.214920587099543</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1115,10 +1118,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>2.107130750570548</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1.764149149653232</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1126,10 +1129,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>0.4714045207910316</v>
+        <v>2.727636339397171</v>
       </c>
       <c r="C13">
-        <v>0.4937279747182557</v>
+        <v>1.666999966673332</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1137,10 +1140,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>0.4955356249106168</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1148,10 +1151,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>1.604161255402129</v>
+        <v>0.9122621455602673</v>
       </c>
       <c r="C15">
-        <v>0.7180219742846005</v>
+        <v>1.117536974282681</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1159,10 +1162,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>2.393509742802166</v>
+        <v>0.2494438257849294</v>
       </c>
       <c r="C16">
-        <v>2.006655592438988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1170,10 +1173,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>3.218177538089946</v>
+        <v>1.642829537380214</v>
       </c>
       <c r="C17">
-        <v>2.073376205344531</v>
+        <v>1.27758452644912</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1181,10 +1184,10 @@
         <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>2.99555225848813</v>
+        <v>3.565887765417689</v>
       </c>
       <c r="C18">
-        <v>2.086996778999804</v>
+        <v>2.651833747093173</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1192,10 +1195,10 @@
         <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>5.647418289212633</v>
+        <v>4.765734174523608</v>
       </c>
       <c r="C19">
-        <v>3.964425136973413</v>
+        <v>3.343484542941523</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1203,10 +1206,10 @@
         <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>12.41061373717405</v>
+        <v>2.621492365470901</v>
       </c>
       <c r="C20">
-        <v>7.313913681014655</v>
+        <v>1.909333798882625</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1214,10 +1217,10 @@
         <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>10.84891187580067</v>
+        <v>2.667499869832341</v>
       </c>
       <c r="C21">
-        <v>11.54296322440646</v>
+        <v>2.108448613449129</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1225,10 +1228,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>0.806225774829855</v>
+        <v>11.34136969976143</v>
       </c>
       <c r="C22">
-        <v>0.4</v>
+        <v>12.18655908048791</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1236,10 +1239,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>11.68802806293688</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>12.78041035682692</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1247,10 +1250,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>0.4330127018922193</v>
+        <v>3.919892288769624</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>4.115013163202924</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1258,10 +1261,10 @@
         <v>26</v>
       </c>
       <c r="B25" s="1">
-        <v>0.6959705453537527</v>
+        <v>0.8975274678557505</v>
       </c>
       <c r="C25">
-        <v>0.4330127018922193</v>
+        <v>0.5859465277082315</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1269,7 +1272,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1280,10 +1283,10 @@
         <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>2.055075018906447</v>
+        <v>0.2494438257849294</v>
       </c>
       <c r="C27">
-        <v>2.285218200133682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1291,10 +1294,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>3.295788558482207</v>
+        <v>0.5734883511361752</v>
       </c>
       <c r="C28">
-        <v>1.931033114394698</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1302,10 +1305,10 @@
         <v>30</v>
       </c>
       <c r="B29" s="1">
-        <v>1.107068200247844</v>
+        <v>0.3</v>
       </c>
       <c r="C29">
-        <v>1.206045378311055</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1313,10 +1316,10 @@
         <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>1.852625764212033</v>
+        <v>1.932183566158592</v>
       </c>
       <c r="C30">
-        <v>1.818424226264781</v>
+        <v>2.41384893203089</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1324,10 +1327,10 @@
         <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>0.74535599249993</v>
+        <v>3.400816895329056</v>
       </c>
       <c r="C31">
-        <v>0.6666666666666666</v>
+        <v>2.084066537645412</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1335,10 +1338,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>2.695675549220764</v>
+        <v>1.580787426850583</v>
       </c>
       <c r="C32">
-        <v>1.462166554973392</v>
+        <v>0.7118052168020874</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1346,10 +1349,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>2.756003547812585</v>
+        <v>1.907878402833891</v>
       </c>
       <c r="C33">
-        <v>1.563827214098653</v>
+        <v>2.033060090930254</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1357,10 +1360,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="1">
-        <v>3.027466854575877</v>
+        <v>0.9451631252505218</v>
       </c>
       <c r="C34">
-        <v>2.924988129130707</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1368,10 +1371,10 @@
         <v>36</v>
       </c>
       <c r="B35" s="1">
-        <v>1.252144974038981</v>
+        <v>2.365492666561356</v>
       </c>
       <c r="C35">
-        <v>0.4948716593053935</v>
+        <v>2.01218510303821</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1379,10 +1382,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>2.390955178723906</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>2.170765354021992</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1390,10 +1393,10 @@
         <v>38</v>
       </c>
       <c r="B37" s="1">
-        <v>0</v>
+        <v>2.804757862395017</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>2.997035572398536</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1401,10 +1404,10 @@
         <v>39</v>
       </c>
       <c r="B38" s="1">
-        <v>0</v>
+        <v>1.325393023471403</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>0.5821416398857661</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1412,10 +1415,10 @@
         <v>40</v>
       </c>
       <c r="B39" s="1">
-        <v>1.81628436344337</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C39">
-        <v>1.013245610238044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1423,10 +1426,10 @@
         <v>41</v>
       </c>
       <c r="B40" s="1">
-        <v>1.292439553712281</v>
+        <v>0.3</v>
       </c>
       <c r="C40">
-        <v>1.14564392373896</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1434,10 +1437,10 @@
         <v>42</v>
       </c>
       <c r="B41" s="1">
-        <v>0.9830564581955606</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C41">
-        <v>1.16619037896906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1445,10 +1448,10 @@
         <v>43</v>
       </c>
       <c r="B42" s="1">
-        <v>0</v>
+        <v>1.818424226264781</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1.943936441576444</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1456,10 +1459,10 @@
         <v>44</v>
       </c>
       <c r="B43" s="1">
-        <v>1.047664068296704</v>
+        <v>1.726911179598482</v>
       </c>
       <c r="C43">
-        <v>1.089724735885168</v>
+        <v>0.7118052168020873</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1467,10 +1470,10 @@
         <v>45</v>
       </c>
       <c r="B44" s="1">
-        <v>0</v>
+        <v>1.468181036369683</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>0.7063206700139031</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1478,10 +1481,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="1">
-        <v>2.70487088982307</v>
+        <v>1.640121946685672</v>
       </c>
       <c r="C45">
-        <v>2.318180583741604</v>
+        <v>0.6708203932499369</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1489,10 +1492,10 @@
         <v>47</v>
       </c>
       <c r="B46" s="1">
-        <v>2.202271554554524</v>
+        <v>0.3</v>
       </c>
       <c r="C46">
-        <v>1.818424226264781</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1500,10 +1503,10 @@
         <v>48</v>
       </c>
       <c r="B47" s="1">
-        <v>0.8887803753208976</v>
+        <v>2.644911256650317</v>
       </c>
       <c r="C47">
-        <v>0.8907235428302467</v>
+        <v>1.536229149573722</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1511,10 +1514,10 @@
         <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>1.577939474296213</v>
+        <v>1.904380914278093</v>
       </c>
       <c r="C48">
-        <v>1.586050300449376</v>
+        <v>2.039607805437114</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1522,10 +1525,10 @@
         <v>50</v>
       </c>
       <c r="B49" s="1">
-        <v>0.7064381221422574</v>
+        <v>1.42828568570857</v>
       </c>
       <c r="C49">
-        <v>0.7284313590846836</v>
+        <v>0.458257569495584</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1533,10 +1536,10 @@
         <v>51</v>
       </c>
       <c r="B50" s="1">
-        <v>0.4330127018922193</v>
+        <v>1.955050439815357</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>1.730767331432956</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1544,10 +1547,10 @@
         <v>52</v>
       </c>
       <c r="B51" s="1">
-        <v>0.6571287406727709</v>
+        <v>0.9865765724632496</v>
       </c>
       <c r="C51">
-        <v>0.628539361054709</v>
+        <v>0.6191391873668903</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1555,10 +1558,10 @@
         <v>53</v>
       </c>
       <c r="B52" s="1">
-        <v>0</v>
+        <v>0.4533823502911815</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1566,10 +1569,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="1">
-        <v>1.05821665324597</v>
+        <v>1.048279012901093</v>
       </c>
       <c r="C53">
-        <v>0.9333240326917549</v>
+        <v>0.5467073155618908</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1577,10 +1580,10 @@
         <v>55</v>
       </c>
       <c r="B54" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C54">
-        <v>0.4330127018922193</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1588,10 +1591,10 @@
         <v>56</v>
       </c>
       <c r="B55" s="1">
-        <v>0.4714045207910317</v>
+        <v>1.303414319734477</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.6708203932499369</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1599,10 +1602,10 @@
         <v>57</v>
       </c>
       <c r="B56" s="1">
-        <v>0.73528410979512</v>
+        <v>0.2494438257849294</v>
       </c>
       <c r="C56">
-        <v>0.6708203932499369</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1610,10 +1613,10 @@
         <v>58</v>
       </c>
       <c r="B57" s="1">
-        <v>0.9090593428863095</v>
+        <v>0.521749194749951</v>
       </c>
       <c r="C57">
-        <v>0.8907235428302467</v>
+        <v>0.3590109871423002</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1621,10 +1624,10 @@
         <v>59</v>
       </c>
       <c r="B58" s="1">
-        <v>5.264239947249956</v>
+        <v>1.123486636423514</v>
       </c>
       <c r="C58">
-        <v>3.995692124720767</v>
+        <v>0.4818944098266986</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1632,10 +1635,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="1">
-        <v>0.4898979485566357</v>
+        <v>1.384035966135113</v>
       </c>
       <c r="C59">
-        <v>0.3499271061118826</v>
+        <v>0.458257569495584</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1643,10 +1646,10 @@
         <v>61</v>
       </c>
       <c r="B60" s="1">
-        <v>0.9576845844606717</v>
+        <v>4.686742531391666</v>
       </c>
       <c r="C60">
-        <v>0.9150793638884732</v>
+        <v>3.879289740260308</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1654,10 +1657,10 @@
         <v>62</v>
       </c>
       <c r="B61" s="1">
-        <v>0.4330127018922193</v>
+        <v>0.6155395104206461</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>0.4268749491621899</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1665,10 +1668,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="1">
-        <v>0</v>
+        <v>1.290994448735806</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.7156970184527962</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1676,7 +1679,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="1">
-        <v>0</v>
+        <v>0.2494438257849294</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1687,10 +1690,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="1">
-        <v>2.591947651443605</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C64">
-        <v>1.728958777478852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1698,10 +1701,10 @@
         <v>66</v>
       </c>
       <c r="B65" s="1">
-        <v>1.557776192739723</v>
+        <v>0.4</v>
       </c>
       <c r="C65">
-        <v>1.801542548916222</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1709,10 +1712,10 @@
         <v>67</v>
       </c>
       <c r="B66" s="1">
-        <v>0.6571287406727709</v>
+        <v>2.216353361317239</v>
       </c>
       <c r="C66">
-        <v>0.628539361054709</v>
+        <v>1.469693845669907</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1720,10 +1723,10 @@
         <v>68</v>
       </c>
       <c r="B67" s="1">
-        <v>3.250470051478026</v>
+        <v>1.048279012901093</v>
       </c>
       <c r="C67">
-        <v>2.45877114745467</v>
+        <v>0.4714045207910317</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1731,10 +1734,10 @@
         <v>69</v>
       </c>
       <c r="B68" s="1">
-        <v>1.184215716795435</v>
+        <v>2.867635495200416</v>
       </c>
       <c r="C68">
-        <v>0.9428090415820632</v>
+        <v>2.337139752394414</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1742,10 +1745,10 @@
         <v>70</v>
       </c>
       <c r="B69" s="1">
-        <v>0.73528410979512</v>
+        <v>1.477234653744023</v>
       </c>
       <c r="C69">
-        <v>0.6555547773570889</v>
+        <v>0.8621678104251708</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1753,10 +1756,10 @@
         <v>71</v>
       </c>
       <c r="B70" s="1">
-        <v>1.743559577416269</v>
+        <v>1.139688066485251</v>
       </c>
       <c r="C70">
-        <v>1.299038105676658</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1764,10 +1767,10 @@
         <v>72</v>
       </c>
       <c r="B71" s="1">
-        <v>2.750695644852815</v>
+        <v>2.136716068071646</v>
       </c>
       <c r="C71">
-        <v>2.408318915758459</v>
+        <v>0.8439325934114775</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1775,10 +1778,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="1">
-        <v>1.7083229633002</v>
+        <v>2.746512940681936</v>
       </c>
       <c r="C72">
-        <v>1.253919474921247</v>
+        <v>1.622412469818394</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1786,10 +1789,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="1">
-        <v>0.4000000000000001</v>
+        <v>1.821171783953031</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>0.8749603165604459</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1797,10 +1800,10 @@
         <v>75</v>
       </c>
       <c r="B74" s="1">
-        <v>4.09878030638384</v>
+        <v>0.4229525846816506</v>
       </c>
       <c r="C74">
-        <v>3.038457210859192</v>
+        <v>0.339934634239519</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1808,10 +1811,10 @@
         <v>76</v>
       </c>
       <c r="B75" s="1">
-        <v>0.4330127018922193</v>
+        <v>3.590728802532062</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>4.117712417781936</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1819,10 +1822,10 @@
         <v>77</v>
       </c>
       <c r="B76" s="1">
-        <v>0.6757197808427856</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="C76">
-        <v>0.5994789404140899</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1830,10 +1833,10 @@
         <v>78</v>
       </c>
       <c r="B77" s="1">
-        <v>0</v>
+        <v>1.051982255870633</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>0.6633249580710801</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1841,10 +1844,10 @@
         <v>79</v>
       </c>
       <c r="B78" s="1">
-        <v>1.703643155123749</v>
+        <v>0.2494438257849294</v>
       </c>
       <c r="C78">
-        <v>1.309952797378954</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1852,10 +1855,10 @@
         <v>80</v>
       </c>
       <c r="B79" s="1">
-        <v>0.9712418121129114</v>
+        <v>2.14993539954628</v>
       </c>
       <c r="C79">
-        <v>0.6959705453537527</v>
+        <v>0.9865765724632495</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1863,10 +1866,10 @@
         <v>81</v>
       </c>
       <c r="B80" s="1">
-        <v>0</v>
+        <v>1.384437310486346</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>0.7630348761506398</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1874,10 +1877,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="1">
-        <v>3.771383477363889</v>
+        <v>3.140417523550367</v>
       </c>
       <c r="C81">
-        <v>2.669997919266772</v>
+        <v>2.68824602048746</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1885,10 +1888,10 @@
         <v>83</v>
       </c>
       <c r="B82" s="1">
-        <v>0.4714045207910317</v>
+        <v>0.3</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1896,7 +1899,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="1">
-        <v>0</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1907,10 +1910,10 @@
         <v>85</v>
       </c>
       <c r="B84" s="1">
-        <v>0.3499271061118826</v>
+        <v>0.5734883511361751</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.3958114029012639</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1918,7 +1921,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="1">
-        <v>0.4714045207910317</v>
+        <v>0.4533823502911815</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1929,10 +1932,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="1">
-        <v>1.0066347944848</v>
+        <v>1.507389207279335</v>
       </c>
       <c r="C86">
-        <v>1.067187372905475</v>
+        <v>0.7630348761506397</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1940,7 +1943,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="1">
-        <v>0.4</v>
+        <v>0.6633249580710801</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1951,10 +1954,10 @@
         <v>89</v>
       </c>
       <c r="B88" s="1">
-        <v>1.834545054108935</v>
+        <v>1.691810338726603</v>
       </c>
       <c r="C88">
-        <v>1.436043948569201</v>
+        <v>1.667999467092907</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1962,10 +1965,10 @@
         <v>90</v>
       </c>
       <c r="B89" s="1">
-        <v>1.097446843705856</v>
+        <v>1.154700538379251</v>
       </c>
       <c r="C89">
-        <v>0.6781419786518724</v>
+        <v>0.9309493362512627</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1973,10 +1976,10 @@
         <v>91</v>
       </c>
       <c r="B90" s="1">
-        <v>2.562334005463682</v>
+        <v>2.486407493196202</v>
       </c>
       <c r="C90">
-        <v>1.601735170231195</v>
+        <v>1.808928473495351</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1984,10 +1987,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="1">
-        <v>0.4714045207910317</v>
+        <v>0.4818944098266986</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1995,10 +1998,10 @@
         <v>93</v>
       </c>
       <c r="B92" s="1">
-        <v>0.7767276132106846</v>
+        <v>1.356465996625053</v>
       </c>
       <c r="C92">
-        <v>0.9791208740244551</v>
+        <v>0.5259911279353167</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2006,10 +2009,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="1">
-        <v>3.78667253520672</v>
+        <v>3.414999593297519</v>
       </c>
       <c r="C93">
-        <v>2.959166549328825</v>
+        <v>3.272104317815474</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2017,10 +2020,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="1">
-        <v>2.290317784840251</v>
+        <v>2.073376205344531</v>
       </c>
       <c r="C94">
-        <v>1.448754254140049</v>
+        <v>2.36196716507425</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2028,10 +2031,10 @@
         <v>96</v>
       </c>
       <c r="B95" s="1">
-        <v>1.454494948618095</v>
+        <v>1.145522685162639</v>
       </c>
       <c r="C95">
-        <v>1.048185114039356</v>
+        <v>1.514375558880073</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2039,10 +2042,10 @@
         <v>97</v>
       </c>
       <c r="B96" s="1">
-        <v>0.4898979485566357</v>
+        <v>0.6155395104206461</v>
       </c>
       <c r="C96">
-        <v>0.3499271061118826</v>
+        <v>0.4268749491621899</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2050,10 +2053,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="1">
-        <v>0.4991341984846218</v>
+        <v>0.7371114795831993</v>
       </c>
       <c r="C97">
-        <v>0.3499271061118826</v>
+        <v>0.4229525846816506</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2061,10 +2064,10 @@
         <v>99</v>
       </c>
       <c r="B98" s="1">
-        <v>1.367188110455104</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C98">
-        <v>1.454494948618095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2072,7 +2075,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="1">
-        <v>0</v>
+        <v>0.2494438257849294</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2083,10 +2086,10 @@
         <v>101</v>
       </c>
       <c r="B100" s="1">
-        <v>0.4</v>
+        <v>5.220046828227586</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>4.197883064381644</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2094,10 +2097,10 @@
         <v>102</v>
       </c>
       <c r="B101" s="1">
-        <v>6.03508261933689</v>
+        <v>0.6574360974438673</v>
       </c>
       <c r="C101">
-        <v>4.709446771000697</v>
+        <v>0.5962847939999438</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2105,10 +2108,10 @@
         <v>103</v>
       </c>
       <c r="B102" s="1">
-        <v>0.3608012122941099</v>
+        <v>6.043913375362761</v>
       </c>
       <c r="C102">
-        <v>0.3499271061118827</v>
+        <v>3.211783858785574</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2116,10 +2119,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="1">
-        <v>5.750665576947026</v>
+        <v>1.619670748434179</v>
       </c>
       <c r="C103">
-        <v>4.874423042781577</v>
+        <v>2.044233080861595</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2127,10 +2130,10 @@
         <v>105</v>
       </c>
       <c r="B104" s="1">
-        <v>1.536229149573722</v>
+        <v>1.168569876197207</v>
       </c>
       <c r="C104">
-        <v>1.28062484748657</v>
+        <v>0.5587684871413403</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2138,10 +2141,10 @@
         <v>106</v>
       </c>
       <c r="B105" s="1">
-        <v>0.9741459348873079</v>
+        <v>3.757067414294765</v>
       </c>
       <c r="C105">
-        <v>1.268857754044952</v>
+        <v>1.857118436957883</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2149,10 +2152,10 @@
         <v>107</v>
       </c>
       <c r="B106" s="1">
-        <v>3.46759782758577</v>
+        <v>0.3</v>
       </c>
       <c r="C106">
-        <v>2.81120838110295</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2160,10 +2163,10 @@
         <v>108</v>
       </c>
       <c r="B107" s="1">
-        <v>0.4714045207910317</v>
+        <v>1.306394529484362</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>0.458257569495584</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2171,10 +2174,10 @@
         <v>109</v>
       </c>
       <c r="B108" s="1">
-        <v>0</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2182,10 +2185,10 @@
         <v>110</v>
       </c>
       <c r="B109" s="1">
-        <v>0.9202613255876838</v>
+        <v>2.658320271650251</v>
       </c>
       <c r="C109">
-        <v>0.8907235428302467</v>
+        <v>1.552417469626002</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2193,10 +2196,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="1">
-        <v>0</v>
+        <v>2.042873792805942</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>2.256102834535695</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2204,10 +2207,10 @@
         <v>112</v>
       </c>
       <c r="B111" s="1">
-        <v>2.6503272805217</v>
+        <v>0.7951240294584375</v>
       </c>
       <c r="C111">
-        <v>2.1</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2215,10 +2218,10 @@
         <v>113</v>
       </c>
       <c r="B112" s="1">
-        <v>2.322833518691246</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C112">
-        <v>1.8427033281447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2226,10 +2229,10 @@
         <v>114</v>
       </c>
       <c r="B113" s="1">
-        <v>0.3221897397089212</v>
+        <v>1.584999123729165</v>
       </c>
       <c r="C113">
-        <v>0.8</v>
+        <v>0.7453559924999299</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2237,10 +2240,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="1">
-        <v>0</v>
+        <v>0.4000000000000001</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2248,10 +2251,10 @@
         <v>116</v>
       </c>
       <c r="B115" s="1">
-        <v>0.9830564581955606</v>
+        <v>0.6633249580710801</v>
       </c>
       <c r="C115">
-        <v>1.333170562981346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2259,7 +2262,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="1">
-        <v>0.3142696805273545</v>
+        <v>0.4</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2270,10 +2273,10 @@
         <v>118</v>
       </c>
       <c r="B117" s="1">
-        <v>0.4</v>
+        <v>1.139688066485251</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2281,7 +2284,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2292,10 +2295,10 @@
         <v>120</v>
       </c>
       <c r="B119" s="1">
-        <v>0.7196932764020368</v>
+        <v>1.075484386993445</v>
       </c>
       <c r="C119">
-        <v>0.6555547773570889</v>
+        <v>0.9977753031397176</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2303,10 +2306,10 @@
         <v>121</v>
       </c>
       <c r="B120" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2314,10 +2317,10 @@
         <v>122</v>
       </c>
       <c r="B121" s="1">
-        <v>0.8068715304598785</v>
+        <v>0.2494438257849294</v>
       </c>
       <c r="C121">
-        <v>0.3812200410828153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2325,10 +2328,10 @@
         <v>123</v>
       </c>
       <c r="B122" s="1">
-        <v>0</v>
+        <v>0.6155395104206461</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>0.4268749491621899</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2336,10 +2339,10 @@
         <v>124</v>
       </c>
       <c r="B123" s="1">
-        <v>0.4898979485566357</v>
+        <v>2.281568661153014</v>
       </c>
       <c r="C123">
-        <v>0.3499271061118826</v>
+        <v>2.00554786086551</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2347,10 +2350,10 @@
         <v>125</v>
       </c>
       <c r="B124" s="1">
-        <v>2.883670500517622</v>
+        <v>2.472964932132188</v>
       </c>
       <c r="C124">
-        <v>1.704894913672589</v>
+        <v>2.380476142847617</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2358,10 +2361,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="1">
-        <v>2.725191124795959</v>
+        <v>0.6633249580710801</v>
       </c>
       <c r="C125">
-        <v>2.39002556936578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2369,10 +2372,10 @@
         <v>127</v>
       </c>
       <c r="B126" s="1">
-        <v>0.4</v>
+        <v>1.139688066485251</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2380,10 +2383,10 @@
         <v>128</v>
       </c>
       <c r="B127" s="1">
-        <v>0.73528410979512</v>
+        <v>1.168569876197207</v>
       </c>
       <c r="C127">
-        <v>0.6555547773570889</v>
+        <v>0.4533823502911815</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2391,10 +2394,10 @@
         <v>129</v>
       </c>
       <c r="B128" s="1">
-        <v>0.699205898780101</v>
+        <v>1.31021626713557</v>
       </c>
       <c r="C128">
-        <v>0.6871842709362768</v>
+        <v>0.9551032521262935</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2402,10 +2405,10 @@
         <v>130</v>
       </c>
       <c r="B129" s="1">
-        <v>1.127312438205724</v>
+        <v>2.612789058968723</v>
       </c>
       <c r="C129">
-        <v>0.3726779962499649</v>
+        <v>1.536229149573722</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2413,10 +2416,10 @@
         <v>131</v>
       </c>
       <c r="B130" s="1">
-        <v>2.610809554642438</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C130">
-        <v>2.012358511016242</v>
+        <v>0.339934634239519</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2424,10 +2427,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="1">
-        <v>0</v>
+        <v>0.7520342781785652</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>0.3958114029012639</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2435,10 +2438,10 @@
         <v>133</v>
       </c>
       <c r="B132" s="1">
-        <v>0.4213250442347432</v>
+        <v>2.066935466390333</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>2.423266849156779</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2446,10 +2449,10 @@
         <v>134</v>
       </c>
       <c r="B133" s="1">
-        <v>1.972026594366539</v>
+        <v>1.378001773906292</v>
       </c>
       <c r="C133">
-        <v>1.668332500832293</v>
+        <v>0.7608474807008885</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2457,10 +2460,10 @@
         <v>135</v>
       </c>
       <c r="B134" s="1">
-        <v>1.063098073929635</v>
+        <v>0.4</v>
       </c>
       <c r="C134">
-        <v>0.6123724356957945</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2468,10 +2471,10 @@
         <v>136</v>
       </c>
       <c r="B135" s="1">
-        <v>0</v>
+        <v>1.691810338726603</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>2.347812220392044</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2479,10 +2482,10 @@
         <v>137</v>
       </c>
       <c r="B136" s="1">
-        <v>1.659986613065164</v>
+        <v>1.453348623772776</v>
       </c>
       <c r="C136">
-        <v>1.448754254140049</v>
+        <v>0.7951240294584375</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2490,10 +2493,10 @@
         <v>138</v>
       </c>
       <c r="B137" s="1">
-        <v>1.179208439750453</v>
+        <v>1.358512258154322</v>
       </c>
       <c r="C137">
-        <v>1.032348751457897</v>
+        <v>0.458257569495584</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2501,10 +2504,10 @@
         <v>139</v>
       </c>
       <c r="B138" s="1">
-        <v>0.9140780887664627</v>
+        <v>2.235073948565362</v>
       </c>
       <c r="C138">
-        <v>0.8907235428302467</v>
+        <v>1.477234653744023</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2512,10 +2515,10 @@
         <v>140</v>
       </c>
       <c r="B139" s="1">
-        <v>2.738409919805449</v>
+        <v>1.048279012901093</v>
       </c>
       <c r="C139">
-        <v>1.795054935711501</v>
+        <v>0.5467073155618908</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2523,10 +2526,10 @@
         <v>141</v>
       </c>
       <c r="B140" s="1">
-        <v>0.655554777357089</v>
+        <v>1.54236470683457</v>
       </c>
       <c r="C140">
-        <v>0.628539361054709</v>
+        <v>1.540562667772179</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2534,10 +2537,10 @@
         <v>142</v>
       </c>
       <c r="B141" s="1">
-        <v>1.316561177208767</v>
+        <v>2.20504472113883</v>
       </c>
       <c r="C141">
-        <v>1.302152247482704</v>
+        <v>2.507765716507204</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2545,10 +2548,10 @@
         <v>143</v>
       </c>
       <c r="B142" s="1">
-        <v>2.407396011369039</v>
+        <v>0.4229525846816506</v>
       </c>
       <c r="C142">
-        <v>1.882374387132733</v>
+        <v>0.339934634239519</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2556,10 +2559,10 @@
         <v>144</v>
       </c>
       <c r="B143" s="1">
-        <v>0.4000000000000001</v>
+        <v>2.84722086720835</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>2.045048220023729</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2567,10 +2570,10 @@
         <v>145</v>
       </c>
       <c r="B144" s="1">
-        <v>3.24636548911069</v>
+        <v>0.3</v>
       </c>
       <c r="C144">
-        <v>2.44131112314674</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2578,10 +2581,10 @@
         <v>146</v>
       </c>
       <c r="B145" s="1">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2589,10 +2592,10 @@
         <v>147</v>
       </c>
       <c r="B146" s="1">
-        <v>0</v>
+        <v>1.590248058916875</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1.726911179598483</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2600,10 +2603,10 @@
         <v>148</v>
       </c>
       <c r="B147" s="1">
-        <v>1.663055938177585</v>
+        <v>0.2494438257849294</v>
       </c>
       <c r="C147">
-        <v>1.374368541872554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2611,7 +2614,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="1">
-        <v>0</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2622,10 +2625,10 @@
         <v>150</v>
       </c>
       <c r="B149" s="1">
-        <v>1.743559577416269</v>
+        <v>2.14993539954628</v>
       </c>
       <c r="C149">
-        <v>1.299038105676658</v>
+        <v>0.9865765724632495</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2633,10 +2636,10 @@
         <v>151</v>
       </c>
       <c r="B150" s="1">
-        <v>3.690979996333403</v>
+        <v>3.120719290306145</v>
       </c>
       <c r="C150">
-        <v>2.360790827950103</v>
+        <v>3.602622501579772</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2644,10 +2647,10 @@
         <v>152</v>
       </c>
       <c r="B151" s="1">
-        <v>4.211756033875762</v>
+        <v>0.4229525846816506</v>
       </c>
       <c r="C151">
-        <v>3.411744421846397</v>
+        <v>0.339934634239519</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2655,10 +2658,10 @@
         <v>153</v>
       </c>
       <c r="B152" s="1">
-        <v>0</v>
+        <v>3.508877629986863</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>3.858756276314948</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2666,10 +2669,10 @@
         <v>154</v>
       </c>
       <c r="B153" s="1">
-        <v>3.885013942488925</v>
+        <v>3.383620677453205</v>
       </c>
       <c r="C153">
-        <v>3.687817782917155</v>
+        <v>3.764748774265467</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2677,10 +2680,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="1">
-        <v>3.674083407992923</v>
+        <v>0.3</v>
       </c>
       <c r="C154">
-        <v>3.610016928245936</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2688,10 +2691,10 @@
         <v>156</v>
       </c>
       <c r="B155" s="1">
-        <v>0</v>
+        <v>0.7630348761506398</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>0.4229525846816506</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2699,10 +2702,10 @@
         <v>157</v>
       </c>
       <c r="B156" s="1">
-        <v>0.6267831705280087</v>
+        <v>1.580787426850583</v>
       </c>
       <c r="C156">
-        <v>0.3307189138830738</v>
+        <v>0.7118052168020874</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2710,10 +2713,10 @@
         <v>158</v>
       </c>
       <c r="B157" s="1">
-        <v>1.107068200247844</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C157">
-        <v>1.206045378311055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2721,10 +2724,10 @@
         <v>159</v>
       </c>
       <c r="B158" s="1">
-        <v>0</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2732,10 +2735,10 @@
         <v>160</v>
       </c>
       <c r="B159" s="1">
-        <v>0.4330127018922193</v>
+        <v>1.580787426850583</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>0.7118052168020874</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2743,10 +2746,10 @@
         <v>161</v>
       </c>
       <c r="B160" s="1">
-        <v>1.107068200247844</v>
+        <v>1.819951159295826</v>
       </c>
       <c r="C160">
-        <v>1.206045378311055</v>
+        <v>0.8465616732800196</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2754,10 +2757,10 @@
         <v>162</v>
       </c>
       <c r="B161" s="1">
-        <v>1.387948125831798</v>
+        <v>2.642389491014189</v>
       </c>
       <c r="C161">
-        <v>1.309307341415954</v>
+        <v>1.611072796479276</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2765,10 +2768,10 @@
         <v>163</v>
       </c>
       <c r="B162" s="1">
-        <v>2.315032397181517</v>
+        <v>0.6497862896539309</v>
       </c>
       <c r="C162">
-        <v>2.240721609958126</v>
+        <v>0.3958114029012639</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2776,10 +2779,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="1">
-        <v>0.4714045207910317</v>
+        <v>3.273632029820497</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>1.681269361722466</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2787,10 +2790,10 @@
         <v>165</v>
       </c>
       <c r="B164" s="1">
-        <v>3.346782223048532</v>
+        <v>0.2494438257849294</v>
       </c>
       <c r="C164">
-        <v>2.67854497341433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2798,10 +2801,10 @@
         <v>166</v>
       </c>
       <c r="B165" s="1">
-        <v>0.4714045207910317</v>
+        <v>1.760366123534786</v>
       </c>
       <c r="C165">
-        <v>0</v>
+        <v>0.8944271909999159</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2809,10 +2812,10 @@
         <v>167</v>
       </c>
       <c r="B166" s="1">
-        <v>1.635074734608514</v>
+        <v>1.631631766736056</v>
       </c>
       <c r="C166">
-        <v>1.253919474921247</v>
+        <v>1.105541596785133</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2820,10 +2823,10 @@
         <v>168</v>
       </c>
       <c r="B167" s="1">
-        <v>1.50406855635713</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C167">
-        <v>1.135751097536584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2831,10 +2834,10 @@
         <v>169</v>
       </c>
       <c r="B168" s="1">
-        <v>1.799555500672319</v>
+        <v>2.108448613449129</v>
       </c>
       <c r="C168">
-        <v>1.25554326444328</v>
+        <v>0.8439325934114775</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2842,7 +2845,7 @@
         <v>170</v>
       </c>
       <c r="B169" s="1">
-        <v>0.4330127018922193</v>
+        <v>0.2494438257849294</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -2853,10 +2856,10 @@
         <v>171</v>
       </c>
       <c r="B170" s="1">
-        <v>0.9991996797437438</v>
+        <v>1.590248058916875</v>
       </c>
       <c r="C170">
-        <v>1.192261549873091</v>
+        <v>0.7118052168020874</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2864,10 +2867,10 @@
         <v>172</v>
       </c>
       <c r="B171" s="1">
-        <v>1.74977952755818</v>
+        <v>2.005824851110718</v>
       </c>
       <c r="C171">
-        <v>1.224744871391589</v>
+        <v>1.11753697428268</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2875,10 +2878,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="1">
-        <v>0.77138921583987</v>
+        <v>1.048279012901093</v>
       </c>
       <c r="C172">
-        <v>0.628539361054709</v>
+        <v>0.6633249580710801</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2886,10 +2889,10 @@
         <v>174</v>
       </c>
       <c r="B173" s="1">
-        <v>0.4714045207910317</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="C173">
-        <v>0</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2897,10 +2900,10 @@
         <v>175</v>
       </c>
       <c r="B174" s="1">
-        <v>0.4841229182759271</v>
+        <v>0.8621678104251708</v>
       </c>
       <c r="C174">
-        <v>0</v>
+        <v>0.4533823502911815</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2908,10 +2911,10 @@
         <v>176</v>
       </c>
       <c r="B175" s="1">
-        <v>0.9431860898041277</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C175">
-        <v>1.14564392373896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2919,10 +2922,10 @@
         <v>177</v>
       </c>
       <c r="B176" s="1">
-        <v>4.302970550161314</v>
+        <v>1.468181036369683</v>
       </c>
       <c r="C176">
-        <v>3.211956828269438</v>
+        <v>0.7453559924999299</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2930,10 +2933,10 @@
         <v>178</v>
       </c>
       <c r="B177" s="1">
-        <v>0.2420614591379636</v>
+        <v>3.736308338453881</v>
       </c>
       <c r="C177">
-        <v>0</v>
+        <v>4.34050688284214</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2941,10 +2944,10 @@
         <v>179</v>
       </c>
       <c r="B178" s="1">
-        <v>0</v>
+        <v>0.5617433182117573</v>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2952,10 +2955,10 @@
         <v>180</v>
       </c>
       <c r="B179" s="1">
-        <v>1.318529638712481</v>
+        <v>0.1795054935711501</v>
       </c>
       <c r="C179">
-        <v>0.4823763889427199</v>
+        <v>0.1795054935711501</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2963,10 +2966,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="1">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>1.145522685162639</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2974,10 +2977,10 @@
         <v>182</v>
       </c>
       <c r="B181" s="1">
-        <v>2.738409919805449</v>
+        <v>0.2494438257849294</v>
       </c>
       <c r="C181">
-        <v>2.048305532764962</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2985,10 +2988,10 @@
         <v>183</v>
       </c>
       <c r="B182" s="1">
-        <v>0.9545434087000064</v>
+        <v>2.845854685132199</v>
       </c>
       <c r="C182">
-        <v>0.7806247497997998</v>
+        <v>2.070963275601209</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2996,10 +2999,10 @@
         <v>184</v>
       </c>
       <c r="B183" s="1">
-        <v>0.5954583420518295</v>
+        <v>1.176151917625157</v>
       </c>
       <c r="C183">
-        <v>0</v>
+        <v>0.7630348761506398</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3007,10 +3010,10 @@
         <v>185</v>
       </c>
       <c r="B184" s="1">
-        <v>1.248075441506766</v>
+        <v>0.9195409482755815</v>
       </c>
       <c r="C184">
-        <v>1.049090899768143</v>
+        <v>0.5259911279353167</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3018,10 +3021,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="1">
-        <v>0.2763853991962833</v>
+        <v>1.63469331136523</v>
       </c>
       <c r="C185">
-        <v>0.4714045207910317</v>
+        <v>0.9428090415820635</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3029,10 +3032,10 @@
         <v>187</v>
       </c>
       <c r="B186" s="1">
-        <v>0.8682536766906325</v>
+        <v>0.5374838498865699</v>
       </c>
       <c r="C186">
-        <v>0.7894706383956841</v>
+        <v>0.2494438257849294</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3040,10 +3043,10 @@
         <v>188</v>
       </c>
       <c r="B187" s="1">
-        <v>0.655554777357089</v>
+        <v>1.14697670227235</v>
       </c>
       <c r="C187">
-        <v>0.628539361054709</v>
+        <v>1.54344492037203</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3051,10 +3054,10 @@
         <v>189</v>
       </c>
       <c r="B188" s="1">
-        <v>0.4982608642958916</v>
+        <v>1.048279012901093</v>
       </c>
       <c r="C188">
-        <v>0.8569568250501305</v>
+        <v>0.5467073155618908</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3062,10 +3065,10 @@
         <v>190</v>
       </c>
       <c r="B189" s="1">
-        <v>0.5813347903782768</v>
+        <v>0.9637888196533974</v>
       </c>
       <c r="C189">
-        <v>0.6998542122237652</v>
+        <v>0.7118052168020874</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3073,10 +3076,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="1">
-        <v>1.107068200247844</v>
+        <v>0.9910712498212337</v>
       </c>
       <c r="C190">
-        <v>1.206045378311055</v>
+        <v>0.4582575694955839</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3084,10 +3087,10 @@
         <v>192</v>
       </c>
       <c r="B191" s="1">
-        <v>0.7196932764020368</v>
+        <v>1.580787426850583</v>
       </c>
       <c r="C191">
-        <v>0.9063269671749657</v>
+        <v>0.7118052168020874</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3095,10 +3098,10 @@
         <v>193</v>
       </c>
       <c r="B192" s="1">
-        <v>0.2874797872880345</v>
+        <v>1.105541596785133</v>
       </c>
       <c r="C192">
-        <v>0</v>
+        <v>0.6155395104206463</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3106,10 +3109,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="1">
-        <v>0.7196932764020368</v>
+        <v>1.004987562112089</v>
       </c>
       <c r="C193">
-        <v>0.6555547773570889</v>
+        <v>0.5120763831912405</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3117,10 +3120,10 @@
         <v>195</v>
       </c>
       <c r="B194" s="1">
-        <v>0.9243605054551867</v>
+        <v>1.139688066485251</v>
       </c>
       <c r="C194">
-        <v>0.8907235428302467</v>
+        <v>0.4898979485566357</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3128,10 +3131,10 @@
         <v>196</v>
       </c>
       <c r="B195" s="1">
-        <v>0.6056929133855238</v>
+        <v>1.27758452644912</v>
       </c>
       <c r="C195">
-        <v>0.4330127018922193</v>
+        <v>0.458257569495584</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3139,10 +3142,10 @@
         <v>197</v>
       </c>
       <c r="B196" s="1">
-        <v>3.047950130825634</v>
+        <v>0.5467073155618908</v>
       </c>
       <c r="C196">
-        <v>2.023198787399136</v>
+        <v>0.4955356249106168</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3150,10 +3153,10 @@
         <v>198</v>
       </c>
       <c r="B197" s="1">
-        <v>0.4714045207910317</v>
+        <v>2.575310121562493</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>2.564934480428084</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3161,10 +3164,21 @@
         <v>199</v>
       </c>
       <c r="B198" s="1">
-        <v>0.73528410979512</v>
+        <v>0.3726779962499649</v>
       </c>
       <c r="C198">
-        <v>0.6708203932499369</v>
+        <v>0.1795054935711501</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" s="1">
+        <v>1.123486636423514</v>
+      </c>
+      <c r="C199">
+        <v>0.4818944098266986</v>
       </c>
     </row>
   </sheetData>
